--- a/!parsed_items_100/1299/1299_399-500.xlsx
+++ b/!parsed_items_100/1299/1299_399-500.xlsx
@@ -639,73 +639,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>Wisteria</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>Белье</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Черный виниловый комплект Revel на</t>
+          <t>Сетчатый комбинезон без интимного</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-27127-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24560-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>универсальный (42-46)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24560/24560_комбинезон_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Умопомрачительный комплект Candy Girl Revel создан для непредсказуемой горячей штучки. Элементы наряда дополняют друг друга или используются отдельно, легко меняя образ обладательницы. Кроп-топ на широких бретелях выполнен из ткани с лаковым покрытием, застегивается на пластиковую молнию сзади и дополнен металлической фурнитурой. Пояс для чулок со съемными элементами позволяет использовать любое количество пажей для поддержки чулок. Широкие перемычки из плотных прорезиненных полос на топе и поясе создают комфортную посадку, не сдавливая фигуру. Подходящие Т-стринги и чулки из крупной сетки с матовыми мысочками дополняют комплект. Черный виниловый комплект Revel на эластичных бретелях SL.  Черный виниловый комплект Revel на эластичных бретелях SL. Модель: candy-840083slb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный комбинезон из ажурной бесшовной сетки без интимного доступа Candy Girl Renee подчеркивает талию, выборочно открывает чувственные зоны на спине. Усиленные носочки обеспечивают комфорт при ношении. Сетчатый комбинезон без интимного доступа Ren&amp;#233.e.  Сетчатый комбинезон без интимного доступа Ren. Модель: candy-843025slb. CANDY GIRL. #233. Цвет: стандартный. Материал: 5 2 1 4 6 3. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>5 2 1 4 6 3</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -743,7 +739,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>топ, пояс, стринги, чулки</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -763,7 +759,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -779,22 +775,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Виниловый комплект Skyla SL</t>
+          <t>Бесшовный контактный комбинезон с</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-27128-1299</t>
+          <t>id-24697-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -806,10 +802,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект Candy Girl Skyla показывает сексуальный настрой с первого взгляда! Регулируемые стрепы не только возбуждающе обхватывают тело, но и помогают добиться посадки по фигуре. Бюстгальтер и трусики выполнены из ткани wetlook с тиснением под кожу и дополнены металлической фурнитурой. Мягкий бюст застегивается на три заст</t>
+          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди Kasandrah от Candy Girl визуально вытягивает ноги и подчеркивает зону декольте. Вырез в интимной зоне, стринги и усиленные плотным плетением стопы чулок обеспечивают комфорт и эстетичность при использовании. Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL.  Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL. Модель: candy-843027xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -867,7 +867,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>топ, трусики</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Костюм медсестры</t>
+          <t>Комбинезон с имитацией топа и чулок</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-10859-1299</t>
+          <t>id-24563-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -930,10 +930,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эффектное платье с открытой спиной, воротник-стойка на ''липучке''. Ободок и игрушечный стетоскоп в комплекте. Стринги в комплект не входят. Костюм медсестры.  Костюм медсестры. Модель: candy-841010slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка из топа с короткими рукавами и чулок Baby от Candy Girl. Сочетание ажурного и геометрического рисунков плетения притягивает взгляд. Стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Комбинезон с имитацией топа и чулок Baby XXL.  Комбинезон с имитацией топа и чулок Baby XXL. Модель: candy-843030xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -943,17 +947,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -991,7 +995,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>платье, ободок на голову</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1011,7 +1015,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1027,22 +1031,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Эластичный костюм медсестры-сердцеедки</t>
+          <t>Бесшовный контактный комбинезон с</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-19527-1299</t>
+          <t>id-24698-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1054,15 +1058,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюмы медсестры: платье на молнии с контрастной отделкой. Воротник-стойка на липучке. Ободок и стринги в комплекте. Эластичный костюм медсестры-сердцеедки.  Эластичный костюм медсестры-сердцеедки. Модель: candy-841011slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный сетчатый комбинезон с длинными рукавами Jewelle от Candy Girl равномерно украшен россыпью радужных страз, мерцающих в полумраке, от рукавов до лодыжек. Классическое сеточное плетение  всегда беспроигрышный выбор. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL.  Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL. Модель: candy-843031xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1077,7 +1085,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1115,7 +1123,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>платье на молнии (воротник на липучке), стринги и головной убор</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1135,7 +1143,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1151,22 +1159,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Костюм медсестры ANGEL</t>
+          <t>Контактный эластичный комбинезон со</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-27201-1299</t>
+          <t>id-24559-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1178,30 +1186,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм медсестры, дополненный аксессуарами. Платье из плотной непрозрачной ткани на молнии расстегивается одним движением. Короткие рукава и вырез каре подчеркивают руки и декольте. Контрастная вертикальная отделка зрительно вытягивает силуэт. Пластиковый стетоскоп и ободок в комплекте. Костюм медсестры ANGEL.  Костюм медсестры ANGEL. Модель: candy-841012slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди и чулок Candy Girl Angelle спереди равномерно украшен россыпью серебристых страз в зоне груди и талии. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт и эстетичность при использовании. Контактный эластичный комбинезон со стразами Angelle XXL.  Контактный эластичный комбинезон со стразами Angelle XXL. Модель: candy-843032xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1239,7 +1251,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>халатик, стринги, стетоскоп, головной убор</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1259,7 +1271,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1275,22 +1287,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Костюм школьницы</t>
+          <t>Бесшовный комбинезон-сетка со стразами</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-14199-1299</t>
+          <t>id-25683-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>42-46</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1302,10 +1314,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Костюм школьницы.  Костюм школьницы. Модель: candy-841024sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розовый, черный, белый. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL. Модель: candy-843033slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1315,17 +1331,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1363,7 +1379,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>топ, галстук, юбка, гольфы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1383,7 +1399,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1399,24 +1415,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Кружевной костюм официантки SL</t>
+          <t>Бесшовный комбинезон-сетка со стразами</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-20492-1299</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-25682-1299</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>99999</v>
@@ -1426,10 +1434,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм официантки. Боди из эластичной кружевной сетки с завязками на шее и застежкой на спине, снизу дополнено вставкой из материала wetlook. Воротничок из сатина на застежке-''липучке'' декорирован контрастным бантом, манжеты - контрастными пуговицами-кнопками. Кружевной костюм официантки SL.  Кружевной костюм официантки SL. Модель: candy-841030slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 88% нейлон, 12% эластан . Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL. Модель: candy-843033xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1449,7 +1461,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve">88% нейлон, 12% эластан </t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1487,7 +1499,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>боди, воротник, манжеты</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1507,7 +1519,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1523,12 +1535,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Костюм школьницы Candy Girl Jesse</t>
+          <t>Комбинезон с имитацией ками и чулок</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-25335-1299</t>
+          <t>id-27948-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1550,10 +1562,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм школьницы. Топ из эластичной сетки декорирован спереди непрозрачной вставкой и пуговицами, на застежке крюк-петля сзади. Воротник-стойка на липучке, украшен контрастным бантом. Юбка, Т-стринги и бант выполнены из клетчатого трикотажа. Костюм школьницы Candy Girl Jesse.  Костюм школьницы Candy Girl Jesse. Модель: candy-841032sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с синим. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Провокационный костюм-сетка Candy Girl Giovanna - для смелых девушек. Шикарный бесшовный наряд украшает женственные формы, расставляя выгодные визуальные акценты. Комбинезон имитирует топ и чулки с пажами, стринги в комплекте. Плотное плетение аккуратно обхватывает ноги и талию. Роскошное ажурное плетение украшает бюст, спинку и бедра. Завязки на шее в одно мгновение позволяют оголить грудь. Открытые участки спины и бедер выглядят еще более привлекательно за счет контраста с черной сеткой. Эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией ками и чулок GIOVANNA SL.  Комбинезон с имитацией ками и чулок GIOVANNA SL. Модель: candy-843037slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1563,12 +1579,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1611,7 +1627,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>топ, юбка, стринги</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1631,7 +1647,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1647,12 +1663,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Костюм обворожительной горничной</t>
+          <t>Фантазийный комбинезон HARPER SL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-20053-1299</t>
+          <t>id-27972-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1674,30 +1690,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной, отделанный контрастным кружевом, и дополненный аксессуарами. Бюстгальтер на косточках, с регулируемыми бретелями, на двурядной застежке, украшен сатиновым бантом. Юбка с пажами спереди. Чулки из мелкой сетки с усиленным носочком и кружевной резинкой. Головной убор (ободок) и G-стринги из эластичной сетки в комплекте. Костюм обворожительной горничной.  Костюм обворожительной горничной. Модель: candy-841033slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Восхитительный комбинезон из эластичной сетки Candy Girl Harper идеально подойдет девушкам, желающим сделать акцент на бедрах и ягодицах. Оригинальный дизайн сочетает разное по крупности плетение сетки, создавая силуэт боди на теле. Крупная сетка эффектно выглядит в виде шнуровки по бокам и на груди, а также демонстрирует стройность ног, визуально вытягивая силуэт. Верх комбинезона с завязками на шее легко снимается и обнажает грудь. Интимный доступ и усиленные носочки добавляют комфорт при использовании, а эластичность бесшовного материала не сковывает движения, и позволяет двигаться так, как хочется. Фантазийный комбинезон HARPER SL.  Фантазийный комбинезон HARPER SL. Модель: candy-843038slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1735,7 +1755,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>Бюстгальтер с косточками, юбка с пажами, стринги, чулки, ободок</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1755,7 +1775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1771,12 +1791,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Костюм развратной горничной</t>
+          <t>Комбинезон контактный TASHA SL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-20055-1299</t>
+          <t>id-27947-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1798,30 +1818,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной, отделанный контрастным кружевом, и дополненный аксессуарами. Топ из крупной сетки с застежкой на шее и завязками на спине. Юбка с пажами спереди и фартучком. Чулки из мелкой сетки с усиленным носочком и кружевной резинкой. Манжета с бантиком и G-стринги из эластичной сетки в комплекте. Костюм развратной горничной.  Костюм развратной горничной. Модель: candy-841034slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Tasha с рукавами украшен ажурным рисунком, расставляющим манящие визуальные акценты: на запястьях, груди, спинке, талии и бедрах. Комбинезон облегает всё тело и повторяет соблазнительные изгибы. подчеркивает достоинства и скрывает недостатки, сохраняя эффект обнаженного тела. Открытая область декольте и спины позволяет наслаждаться прикосновениями. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичность материала не сковывает движения, и разрешает двигаться так, как хочется. Комбинезон контактный TASHA SL.  Комбинезон контактный TASHA SL. Модель: candy-843039slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1859,7 +1883,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>Топ, юбочка с пажами, стринги, чулки, манжетка</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1879,7 +1903,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1895,12 +1919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Боди медсестры с бантиком на груди</t>
+          <t>Комбинезон с имитацией боди SABRA SL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-20054-1299</t>
+          <t>id-27961-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1922,15 +1946,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачное боди из эластичной сетки с контрастной отделкой. Игривые завязки на уровне декольте развязываются одним движением. Боди медсестры с бантиком на груди.  Боди медсестры с бантиком на груди. Модель: candy-841035slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сногсшибательный бесшовный комбинезон Candy Girl Sabra идеально подойдет девушкам, желающим подчеркнуть бедра и ягодицы. Костюм-сетка с рисунком боди визуально удлиняет ноги, благодаря продуманному дизайну. Ажурное плетение делает образ более женственным, а имитация пояса подчеркивает талию. Завязки на шее позволяют освободить бюст одним движением руки. Интимный доступ и усиленные носочки дарят комфорт при использовании, а эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией боди SABRA SL.  Комбинезон с имитацией боди SABRA SL. Модель: candy-843040slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1945,7 +1973,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1983,7 +2011,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>Боди, ободок на голову</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2003,7 +2031,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2019,22 +2047,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Костюм кошечки Tawny XXL</t>
+          <t>Бесшовный комплект из 3 предметов</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-21242-1299</t>
+          <t>id-27959-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2046,30 +2074,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ушки-ободок и боди хищной кошки с воротником-стойкой, золотистым бубенчиком, глубоким декольте, короткими рукавами и меховым хвостом. Вставки блестящего эластичного трикотажа визуально формируют приталенный силуэт. Талия декорирована темной шнуровкой. Вставки сетки по бокам зрительно обнажают фигуру. Костюм кошечки Tawny XXL.  Костюм кошечки Tawny XXL. Модель: candy-841050xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный, леопардовый. Материал: 90% полиэстер, 10% эластан, металл. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальный комплект из сетки Candy Girl Monique состоит из топа, колготок с имитацией чулок и пояса и стринг. Продольные полосы геометрического рисунка зрительно удлиняют и стройнят ноги. Высокая посадка пояса подчеркивает хрупкость талии, а имитация пажей приковывает внимание к аппетитным бедрам. Бесшовная и эластичная сетка повторяет каждый изгиб тела, не сковывает движения, а усиленные носочки чулок дарят комфорт при использовании. Бесшовный комплект из 3 предметов MONIQUE SL.  Бесшовный комплект из 3 предметов MONIQUE SL. Модель: candy-843041slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан, металл</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2107,7 +2139,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>боди с бубенчиком, ушки</t>
+          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2127,7 +2159,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2143,22 +2175,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Костюм полицейской CANDY GIRL PORSCHE</t>
+          <t>Бесшовный комплект из 3 предметов LOTUS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-21237-1299</t>
+          <t>id-27960-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2170,30 +2202,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комбинезон полицейского из беспроигрышного сочетания тканей: wetlook и прозрачного эластичного кружева, выгодно подчеркивает фигуру. Воротник-стойка, непрозрачные короткие рукава и кепка полицейского со значком добавляют образу строгости. Лаковые вставки прикрывают самые интимные места груди, акцентируют внимание на талии. Молния без острых краев. Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета).  Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета). Модель: candy-841051xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Lotus состоит из топа, чулок с поясом и стринг, и служит роскошным украшением Вашего тела. Утонченный и элегантный образ помогает создать ажурное плетение на груди и бедрах. Высокая посадка пояса подчеркивает тонкую талию, фантазийные пажи приковывают внимание к ягодицам и бедрам. Усиленные носочки чулок дарят комфорт при использовании. Эластичный материал облегает каждый изгиб женственных форм и не сковывает движения. Бесшовный комплект из 3 предметов LOTUS SL.  Бесшовный комплект из 3 предметов LOTUS SL. Модель: candy-843042slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2231,7 +2267,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>комбинезон, головной убор, наручники</t>
+          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2251,7 +2287,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2267,22 +2303,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Костюм полицейской CANDY GIRL LEXIE One</t>
+          <t>Комбинезон с имитацией боди HERA XXL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-21236-1299</t>
+          <t>id-27971-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2294,30 +2330,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий wetlook-корсет с лаковыми вставками, на молнии, с регулируемыми пажами  идеальный наряд для сексуального полицейского. Кепка с лаковым козырьком и значком City Police (англ. Городская полиция) регулируется в обхвате. Трусики-танга, стреп-браслет и стреп-подвязка, которая удерживает пластмассовый пистолет, дополняют образ. Костюм полицейской CANDY GIRL LEXIE One Size (7 предметов).  Костюм полицейской CANDY GIRL LEXIE One Size (7 предметов). Модель: candy-841056slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, серебряный. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Облегающий бесшовный комбинезон Candy Girl Hera подчеркивает аппетитные женственные формы. Сочетание имитации ажурного боди и крупной сетки визуально делают силуэт стройнее. Визуальные акценты подчеркивают декольте, плечи и спинку, открытые для ласк и прикосновений. Завязки на шее легко развязать одной рукой и освободить грудь. Интимный доступ и усиленные носочки дарят комфорт при использовании. Благодаря эластичности комбинезон облегает фигуру как вторая кожа и не ограничивает движений. Комбинезон с имитацией боди HERA XXL.  Комбинезон с имитацией боди HERA XXL. Модель: candy-843043xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2355,7 +2395,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>корсет, танга, головной убор, браслет, чулки, подвязка, пистолет</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2375,7 +2415,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2391,22 +2431,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Костюм полицейской CANDY GIRL RAVEN 6</t>
+          <t>Комбинезон в крупную сетку JOSIE XXL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-21235-1299</t>
+          <t>id-27958-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2418,30 +2458,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди wetlook на молнии, с воротником-стойкой, с прозрачными вставками. Вырез на ягодицах декорирован стрепами и текстильным значком полицейского. Лаковые митенки застегиваются на кнопки. Кепка с лаковым козырьком и значком City Police (англ. Городская полиция) регулируется в обхвате. Эластичная подвязка поддерживает пластмассовую радиостанцию. Костюм полицейской CANDY GIRL RAVEN (6 предметов).  Костюм полицейской CANDY GIRL RAVEN (6 предметов). Модель: candy-841057slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, серебряный. Материал: 87% полиэстер, 13% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Оригинальный комбинезон из сетки Candy Girl Josie расставит правильные акценты на сочных формах. Геометрический узор зрительно вытягивает силуэт. Глубокие вырезы в декольте и открытая спинка приглашают к прикосновениям. Вставка плотной сетки поддерживает бюст в комфортном положении, кроме того завязками на шее возможно регулировать положение груди. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичный материал комфортно обтягивает фигуру и не мешает разнообразным движениям. Комбинезон в крупную сетку JOSIE XXL.  Комбинезон в крупную сетку JOSIE XXL. Модель: candy-843044xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>87% полиэстер, 13% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2479,7 +2523,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>боди, головной убор, митенки, подвязка, чулки, рация</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2499,7 +2543,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2515,22 +2559,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Прозрачный костюм школьницы Candy Girl</t>
+          <t>Эластичное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-25234-1299</t>
+          <t>id-24152-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2542,10 +2586,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, One Size.  Прозрачный костюм школьницы Candy Girl Micki, One Size. Модель: candy-841061slb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное платье из сетки Candy Girl Sienna выгодно подчеркивает талию и расставляет соблазняющие акценты. Плотное плетение по бокам сглаживает изгибы фигуры. Эластичное бесшовное платье Candy Girl Sienna.  Эластичное бесшовное платье Candy Girl Sienna. Модель: candy-844005slb. Косметика, препараты. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2555,29 +2603,33 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
+          <t xml:space="preserve">4248 </t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">4248 </t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2603,7 +2655,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>топ, галстук, стринги</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2623,7 +2675,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2639,22 +2691,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Прозрачный костюм школьницы Candy Girl</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-25244-1299</t>
+          <t>id-24154-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2666,10 +2718,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, XL.  Прозрачный костюм школьницы Candy Girl Micki, XL. Модель: candy-841061xlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное боди из сетки Candy Girl Tiara идеально садится по фигуре. Сочетание сеток разной плотности визуально вытягивает силуэт. Широкие бретели обеспечивают комфорт. Эластичное бесшовное боди Candy Girl Tiara.  Эластичное бесшовное боди Candy Girl Tiara. Модель: candy-844006slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2679,17 +2735,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2727,7 +2783,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>топ, галстук, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2747,7 +2803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2763,22 +2819,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Костюм горничной Candy Girl Fanny XXL</t>
+          <t>Ажурное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-23804-1299</t>
+          <t>id-24155-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2790,30 +2846,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной Fanny от Candy Girl добавляет эмоций любому интимному свиданию! Бесшовное платье-сетка с регулируемыми бретелями безупречно облегает фигуру. Контрастные рюши акцентируют внимание на декольте и стройных ножках. Ободок-чепчик украшен кружевом и серебристым стразом в форме сердца. Чокер подчеркивает длину шеи. Фартук с надписью Room Service и метелка помогают идеально вжиться в роль. Костюм горничной Candy Girl Fanny XXL (6 предметов).  Костюм горничной Candy Girl Fanny XXL (6 предметов). Модель: candy-841063xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное платье Candy Girl Vanilla  вариант изящного соблазнения. Интригующие вырезы в зоне декольте и на спине открыты для поцелуев и прикосновений. Ажурное бесшовное платье Candy Girl Vanilla.  Ажурное бесшовное платье Candy Girl Vanilla. Модель: candy-844007slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2851,7 +2911,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>платье, передник, ободок, украшение на шею, стринги, перьевая палочка</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2871,7 +2931,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2887,12 +2947,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Костюм невесты Gabriela (3 предмета)</t>
+          <t>Красное бесшовное платье со стрингами</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-25344-1299</t>
+          <t>id-27969-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2914,10 +2974,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кружевной комплект невесты Gabriela от Candy Girl подарит новобрачной ощущение свадебного торжества в супружеской спальне, благодаря пышной вуали. Мягкий кружевной бюстгальтер на завязках деликатно приоткрывает грудь. Трусики-пояс дополнены отстегиваемыми регулируемыми пажами, которые зрительно вытягивают ноги. Матовые чулки идеально дополняют образ. Костюм невесты Gabriela (3 предмета).  Костюм невесты Gabriela (3 предмета). Модель: candy-841067slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное мини-платье Candy Girl Vanilla в комплекте со стрингами - изящный наряд для соблазнения. Эластичная сетка оставляет пространство воображению, облегая каждый изгиб фигуры. Фигурные вырезы в зоне декольте и на спинке открывают доступ для поцелуев и прикосновений. Роковой и интригующий образ для страстного свидания. Красное бесшовное платье со стрингами VANILLA SL.  Красное бесшовное платье со стрингами VANILLA SL. Модель: candy-844007slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: красный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2927,17 +2991,17 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -2975,7 +3039,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>стринги со шлейфом и пажами, лиф, чулки</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -2995,7 +3059,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3011,12 +3075,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Костюм милой школьницы Annika SL</t>
+          <t>Фиолетовое бесшовное боди DIAMOND SL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-27137-1299</t>
+          <t>id-27963-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3038,10 +3102,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм Candy Girl Annika мгновенно превращает в соблазнительно наивную и вместе с тем сексуальную школьницу. Комплект выполнен из гладкого клетчатого трикотажа со вставками эластичной сетки. Топ с металлической застежкой сзади и завязками на шее визуально добавляет объем груди. Высокие трусики с оборками скрадывают животик и подчеркивают игривость образа. Съемный значок, украшенный стразами, очки-оправа и аксессуары для волос в комплекте дополняют перевоплощение. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм милой школьницы Annika SL.  Костюм милой школьницы Annika SL. Модель: candy-841068slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розово-черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Оригинальный дизайн смелого и сексуального боди Candy Girl Diamond делает образ неотразимым. Невесомое бесшовное боди декорировано ажурным плетением и тонкими полосами на талии, которые кокетливо украшают фигуру, при это оставляют живот, спину и ягодицы открытыми для ласк и поцелуев. Фиолетовое бесшовное боди DIAMOND SL.  Фиолетовое бесшовное боди DIAMOND SL. Модель: candy-844008sl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: фиолетовый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3051,17 +3119,17 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3099,7 +3167,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>топ, юбочка-трусики, галстук-бабочка, очки, ленты для волос</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3119,7 +3187,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3135,12 +3203,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Костюм игривой</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-27126-1299</t>
+          <t>id-24158-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3162,30 +3230,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм школьницы Candy Girl Satine на вас взбудоражит внимание мужчины. Топ из эластичного трикотажа на металлической молнии подчеркивает объем груди, оставляя открытым декольте. Тканевая клетчатая юбка фиксируется с помощью лакового пояса и игриво приоткрывает нежную кожу в интимной зоне. Для строгого учителя очевидно, что под юбочкой ничего нет. Сможет ли он устоять и не быть слишком строгим к нерадивой ученице? Лаковый галстук-бабочка на эластичной резинке со значком и очки дополняют комплект. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм игривой школьницы-обольстительницы Satine SL.  Костюм игривой школьницы-обольстительницы Satine SL. Модель: candy-841070sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: красный, синий, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Невесомое бесшовное ажурное боди из сетки Candy Girl Diamond кокетливо открывает животик и спинку для прикосновений и поцелуев. Эластичное бесшовное боди Candy Girl Diamond.  Эластичное бесшовное боди Candy Girl Diamond. Модель: candy-844008slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3223,7 +3295,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>топ, юбочка, пояс, стринги, галстук, значок, очки</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3243,7 +3315,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3259,22 +3331,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с фантазийным</t>
+          <t>Ажурное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-21866-1299</t>
+          <t>id-24157-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>50-56</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -3286,10 +3358,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон Cinnamon от Сandy Girl с цветочным узором. Широкие бретели, усиленные носочки и интимный доступ обеспечивают комфортное ношение и использование. Контактный комбинезон с фантазийным узором Cinnamon XXL.  Контактный комбинезон с фантазийным узором Cinnamon XXL. Модель: candy-843003xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Плетение бесшовного платья из сетки Candy Girl Kaytee подчеркивает все изгибы тела и заставляет следить за каждым движением аппетитных форм. Ажурное бесшовное платье Candy Girl Kaytee.  Ажурное бесшовное платье Candy Girl Kaytee. Модель: candy-844009slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3309,7 +3385,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3347,7 +3423,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3367,7 +3443,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3383,12 +3459,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Сетчатый комбинезон с вырезом в</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-7660-1299</t>
+          <t>id-24159-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3410,10 +3486,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальность - это искусство. Оно выражается в красоте тела, изгибах форм и, конечно, в грамотно подобранной одежде. К одному из видов такой одежды относятся костюмы-сетки. Представленный экземпляр - классический вариант, заслуживший признание благодаря ярко выраженному предназначению и отсутствию лишних элементов. Магический чёрный цвет визуально стройнит, а эластичная сеточка идеально подчёркивает обворожительность обнажённого тела. Приятный дополнительный нюанс - пикантный вырез в интимном месте. Он позволяет наслаждаться интимным процессом, не снимая костюм. Сетчатый комбинезон с вырезом в интимном месте.  Сетчатый комбинезон с вырезом в интимном месте. Модель: candy-843005slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное боди из сетки Dixie от Candy Girl идеально садится по фигуре. Вертикальный узор визуально стройнит. Открытая спина провоцирует на поцелуи. Эластичное бесшовное боди Candy Girl Dixie.  Эластичное бесшовное боди Candy Girl Dixie. Модель: candy-844010slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3433,7 +3513,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3471,7 +3551,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3491,7 +3571,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3507,24 +3587,16 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Фантазийный комбинезон с разрезом в</t>
+          <t>Бесшовное эластичное платье с имитацией</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-10851-1299</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24700-1299</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>99999</v>
@@ -3534,30 +3606,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурный костюм-сетка создан специально для того, чтобы возбуждать и доводить до экстаза своей притягательной сексапильностью. Он подчёркивает достоинства фигуры, делая её ещё соблазнительнее. Данный комбинезон декорирован цветочным ажурным узором, что делает акцент на чувственный характер образа. Глубокий вырез выделяет красоту груди. А пикантный вырез на интимном месте позволяет приступить к сексуальным играм, не снимая эротический наряд. Фантазийный комбинезон с разрезом в интимном месте.  Фантазийный комбинезон с разрезом в интимном месте. Модель: candy-843010slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное мини-платье из сетки Candy Girl Starr украшено сочетанием различных плетений. Оно подчеркивает талию, зону декольте и бедра. Стринги в комплекте. Бесшовное эластичное платье с имитацией топа и юбки Starr XXL.  Бесшовное эластичное платье с имитацией топа и юбки Starr XXL. Модель: candy-844011xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3595,7 +3671,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3615,7 +3691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3631,22 +3707,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ассиметричный комбинезон с имитацией</t>
+          <t>Бесшовное эластичное платье с</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-10853-1299</t>
+          <t>id-24564-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3658,10 +3734,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот роскошный костюм выведет искусство обольщения на новый уровень. Идеально облегающая ткань костюма, ассиметричный геометрический рисунок и пикантно открытая интимная область. Красноречивее намёка для партнёра просто не существует!.Ассиметричный комбинезон с имитацией чулок.  Ассиметричный комбинезон с имитацией чулок. Модель: candy-843011slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное платье из сетки Spice от Candy Girl с абстрактным рисунком плетения приковывает внимание к декольте. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Бесшовное эластичное платье с продольными полосками Spice XXL.  Бесшовное эластичное платье с продольными полосками Spice XXL. Модель: candy-844012xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3671,17 +3751,17 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3719,7 +3799,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3739,7 +3819,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3755,22 +3835,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ажурный комбинезон со шнуровкой на</t>
+          <t>Асимметричное эластичное платье с</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-14200-1299</t>
+          <t>id-24561-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3782,10 +3862,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм-сетка с доступом, с имитацией шнуровки и открытой спинкой. Цветочное плетение. Ажурный комбинезон со шнуровкой на груди.  Ажурный комбинезон со шнуровкой на груди. Модель: candy-843014slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное ассиметричное бесшовное платье из сетки Candy Girl Nikki с длинным рукавом. Продольный рисунок плетения зрительно вытягивает силуэт. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Асимметричное эластичное платье с продольными полосками Nikki XXL.  Асимметричное эластичное платье с продольными полосками Nikki XXL. Модель: candy-844013xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3795,17 +3879,17 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3843,7 +3927,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3863,7 +3947,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3879,22 +3963,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди и чулок</t>
+          <t>Бесшовное эластичное платье с открытыми</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-25339-1299</t>
+          <t>id-24701-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -3906,10 +3990,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">У костюма из боди с открытой спиной и чулок Candy Girl Tatiyannah весьма неординарный дизайн сочетания сеток разной плотности. Комбинезон с имитацией боди и чулок Tatiyannah.  Комбинезон с имитацией боди и чулок Tatiyannah. Модель: candy-843016slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное платье с рукавами 3.4 из сетки Candy Girl Merimba можно носить, открывая плечи или приоткрывая запястья. Крупное плетение открывает зону декольте, переходя в ажурное плетение на талии и бедрах. Стринги в комплекте. Бесшовное эластичное платье с открытыми плечами Merimba XXL.  Бесшовное эластичное платье с открытыми плечами Merimba XXL. Модель: candy-844014xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3917,19 +4005,11 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -3967,7 +4047,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3987,7 +4067,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4003,22 +4083,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с необычным</t>
+          <t>Бесшовное платье-сетка со стразами</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-21864-1299</t>
+          <t>id-25685-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>50-56</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -4030,10 +4110,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон без рукавов Chardonnay от Candy Girl. Дизайн модели подчеркивает щиколотки. Сдержанное плетение для ценителей лаконичной элегантности. Интимный доступ обеспечивает комфортное использование. Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL.  Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL. Модель: candy-843018xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo SL.  Бесшовное платье-сетка со стразами Candy Girl Cleo SL. Модель: candy-844015slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4043,12 +4127,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -4091,7 +4175,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4111,7 +4195,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4127,24 +4211,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией чулочек с</t>
+          <t>Бесшовное платье-сетка со стразами</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-21863-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>50-56</t>
-        </is>
-      </c>
+          <t>id-25684-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4154,10 +4230,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон из топа и чулок Lexus от Candy Girl украшен роскошными ажурными вставками и кокетливым плетением в виде бантика сзади. Усиленные носочки чулок обеспечивают комфортное использование. Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL.  Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL. Модель: candy-843019xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo XXL.  Бесшовное платье-сетка со стразами Candy Girl Cleo XXL. Модель: candy-844015xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4167,12 +4247,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -4215,7 +4295,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4235,7 +4315,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4251,12 +4331,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон в</t>
+          <t>Бесшовное боди на завязочках JUNA SL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-24702-1299</t>
+          <t>id-27970-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4278,10 +4358,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный костюм с рукавами 3.4 из бесшовной сетки и стринг Caramel от Candy Girl открывает плечи, обнажает ключицы, эротично подчеркивает нижнюю часть груди и талию. Вырез в интимной зоне и усиленные носочки обеспечивают комфорт при использовании. Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel.  Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel. Модель: candy-843023slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное эластичное боди Candy Girl Juna визуально вытягивает силуэт, благодаря высоким вырезам и V-образному дизайну плетения. Завязки на шее позволяют освободить бюст одним движением руки. Откровенное боди интригует и заставляет воображение рисовать пикантные сценарии страстного свидания. Бесшовное боди на завязочках JUNA SL.  Бесшовное боди на завязочках JUNA SL. Модель: candy-844021slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4339,7 +4423,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4359,65 +4443,77 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Белье</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Сетчатый комбинезон без интимного</t>
+          <t>Бесшовное платье с открытой спиной</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-24560-1299</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+          <t>id-27946-1299</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>99999</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>универсальный (42-46)</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный комбинезон из ажурной бесшовной сетки без интимного доступа Candy Girl Renee подчеркивает талию, выборочно открывает чувственные зоны на спине. Усиленные носочки обеспечивают комфорт при ношении. Сетчатый комбинезон без интимного доступа Ren&amp;#233.e.  Сетчатый комбинезон без интимного доступа Ren. Модель: candy-843025slb. CANDY GIRL. #233. Цвет: стандартный. Материал: 5 2 1 4 6 3. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Элегантное утонченное бесшовное платье Candy Girl Fiona из эластичной сетки облегает каждый изгиб фигуры, подчеркивая женственные формы. Оригинальный дизайн сочетает равномерное плетение и крупную сетку. Акцентные вставки, имитирующие шнуровку, зрительно вытягивают фигуру и подчеркивают зону декольте. Открытая спинка и плечи облегчают образ, а завязки на шее позволяют быстро обнажить грудь, ведь накал страсти может стать внезапным и сногсшибательным. Трусики-стринги в комплекте. Бесшовное платье с открытой спиной FIONA SL.  Бесшовное платье с открытой спиной FIONA SL. Модель: candy-844022slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>5 2 1 4 6 3</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4455,7 +4551,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>черный</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4475,7 +4571,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4491,22 +4587,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон с</t>
+          <t>Бесшовное платье с открытой спиной ELLA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-24697-1299</t>
+          <t>id-27962-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4518,10 +4614,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди Kasandrah от Candy Girl визуально вытягивает ноги и подчеркивает зону декольте. Вырез в интимной зоне, стринги и усиленные плотным плетением стопы чулок обеспечивают комфорт и эстетичность при использовании. Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL.  Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL. Модель: candy-843027xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное платье Candy Girl Ella из плотной сетки подчеркивает самые выгодные ракурсы тела. Эластичный материал идеально облегает фигуру и демонстрирует волнительные изгибы. Кружевные вставки переносят акцент на талию и грудь, которая комфортно поддерживается с помощью широких бретелей. Пикантная особенность - в открытой спинке, украшенной крестообразным плетением, что оставляет максимальное пространство для ласк и прикосновений. Бесшовное платье с открытой спиной ELLA XXL.  Бесшовное платье с открытой спиной ELLA XXL. Модель: candy-844023slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: вишневый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4579,7 +4679,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4599,7 +4699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4615,22 +4715,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией топа и чулок</t>
+          <t>Бесшовное мини-платье DARCY XXL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-24563-1299</t>
+          <t>id-27956-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -4642,15 +4742,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка из топа с короткими рукавами и чулок Baby от Candy Girl. Сочетание ажурного и геометрического рисунков плетения притягивает взгляд. Стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Комбинезон с имитацией топа и чулок Baby XXL.  Комбинезон с имитацией топа и чулок Baby XXL. Модель: candy-843030xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Мини-платье Candy Girl Darcy с рукавами выполнено из эластичной кружевной сетки. Бесшовный ажурный материал облегает фигуру как вторая кожа, подчеркивая аппетитные формы и повторяя изгибы. Геометричный рисунок расставляет правильные акценты на декольте и талии. V-образная вставка плотной сетки зрительно вытягивает силуэт и привлекает внимание к груди. Это платье идеально подойдет для девушек, которые хотят подчеркнуть свою сексуальность. Бесшовное мини-платье DARCY XXL.  Бесшовное мини-платье DARCY XXL. Модель: candy-844024xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4703,7 +4807,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4723,7 +4827,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4739,22 +4843,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон с</t>
+          <t>Бесшовное платье на тонких бретелях</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-24698-1299</t>
+          <t>id-27973-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4766,10 +4870,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный сетчатый комбинезон с длинными рукавами Jewelle от Candy Girl равномерно украшен россыпью радужных страз, мерцающих в полумраке, от рукавов до лодыжек. Классическое сеточное плетение  всегда беспроигрышный выбор. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL.  Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL. Модель: candy-843031xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Тонкое и невесомое платье Candy Girl Camilla оставляет иллюзию орнамента на теле. Бесшовное мини-платье на тонких бретелях сочетает в себе ажурное плетение и крупную сетку, визуально стройнит и вытягивает силуэт. Благодаря эластичности материала, платье облегает фигуру, повторяя волнующие изгибы. Оголенные плечи, декольте и спинка манят к прикосновениям. Бесшовное платье на тонких бретелях CAMILLA  XXL.  Бесшовное платье на тонких бретелях CAMILLA  XXL. Модель: candy-844025xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4827,7 +4935,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4847,7 +4955,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4863,22 +4971,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Контактный эластичный комбинезон со</t>
+          <t>Колготки с имитацией чулок и пояса</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-24559-1299</t>
+          <t>id-27955-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -4890,15 +4998,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди и чулок Candy Girl Angelle спереди равномерно украшен россыпью серебристых страз в зоне груди и талии. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт и эстетичность при использовании. Контактный эластичный комбинезон со стразами Angelle XXL.  Контактный эластичный комбинезон со стразами Angelle XXL. Модель: candy-843032xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Необходимые элементы женского гардероба для соблазнения - чулки с поясом и стринги - представлены в коллекции Candy Girl моделью Christabel. Изюминкой фасона являются стразы, которые равномерно рассыпаны от бедер до щиколоток. Падающий свет на стразах мерцает радужным сиянием. Пажи из тонких перемычек подчеркивают бедра, добавляя сексуальный настрой, а сетка привлекает внимание к стройности женских ножек. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса CHRISTABEL SL.  Колготки с имитацией чулок и пояса CHRISTABEL SL. Модель: candy-845000slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4951,7 +5063,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>колготки, стринги</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4971,7 +5083,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -4987,12 +5099,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Бесшовный комбинезон-сетка со стразами</t>
+          <t>Колготки с имитацией чулок и пояса</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-25683-1299</t>
+          <t>id-27957-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -5014,30 +5126,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL. Модель: candy-843033slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Чулки с поясом и стринги Candy Girl Ariel выполнены из сетки равномерного плетения с ажурными вставками. Эластичные чулки подчеркивают стройность, а пажи и пояс с высокой посадкой зрительно удлиняют ноги и акцентируют внимание на ягодицах. Кружевные пояс и резинки чулок превращают классические чулки из сетки в роскошный аксессуар. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса ARIEL SL.  Колготки с имитацией чулок и пояса ARIEL SL. Модель: candy-845001slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5075,7 +5191,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки, стринги</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5095,32 +5211,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Бесшовный комбинезон-сетка со стразами</t>
+          <t>Костюм официанта CANDY BOY ARCHER One</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-25682-1299</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+          <t>id-20529-1299</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>99999</v>
@@ -5130,10 +5254,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL. Модель: candy-843033xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный жилет-майка с отложным воротником, продольными полосами и контрастными пуговицами добавит стройности. Трусы-боксеры из эластичной сетки обеспечат идеальный обзор сзади. Галстук-бабочка на застежке липучка и манжеты на кнопках дополнят образ. Все аксессуары легко надеть самостоятельно. Костюм официанта CANDY BOY ARCHER One Size.  Костюм официанта CANDY BOY ARCHER One Size. Модель: candyboy-801012os. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5153,7 +5281,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5191,7 +5319,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>майка, трусы, манжеты, галстук-бабочка</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5211,7 +5339,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -5227,22 +5355,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией ками и чулок</t>
+          <t>Платье CANDY GIRL XL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-27948-1299</t>
+          <t>id-20531-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -5254,30 +5382,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Провокационный костюм-сетка Candy Girl Giovanna - для смелых девушек. Шикарный бесшовный наряд украшает женственные формы, расставляя выгодные визуальные акценты. Комбинезон имитирует топ и чулки с пажами, стринги в комплекте. Плотное плетение аккуратно обхватывает ноги и талию. Роскошное ажурное плетение украшает бюст, спинку и бедра. Завязки на шее в одно мгновение позволяют оголить грудь. Открытые участки спины и бедер выглядят еще более привлекательно за счет контраста с черной сеткой. Эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией ками и чулок GIOVANNA SL.  Комбинезон с имитацией ками и чулок GIOVANNA SL. Модель: candy-843037slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное платье из ткани с эффектом wetlook, с прозрачными вставками, открытой спинкой. Платье CANDY GIRL XL.  Платье CANDY GIRL XL. Модель: candygirl-840021xl. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>82% нейлон, 18% эластан</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5315,7 +5447,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5335,7 +5467,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5351,22 +5483,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Фантазийный комбинезон HARPER SL</t>
+          <t>Кружевное розовое боди с доступом сзади</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-27972-1299</t>
+          <t>id-20283-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -5378,15 +5510,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительный комбинезон из эластичной сетки Candy Girl Harper идеально подойдет девушкам, желающим сделать акцент на бедрах и ягодицах. Оригинальный дизайн сочетает разное по крупности плетение сетки, создавая силуэт боди на теле. Крупная сетка эффектно выглядит в виде шнуровки по бокам и на груди, а также демонстрирует стройность ног, визуально вытягивая силуэт. Верх комбинезона с завязками на шее легко снимается и обнажает грудь. Интимный доступ и усиленные носочки добавляют комфорт при использовании, а эластичность бесшовного материала не сковывает движения, и позволяет двигаться так, как хочется. Фантазийный комбинезон HARPER SL.  Фантазийный комбинезон HARPER SL. Модель: candy-843038slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Рельефное кружево с блестящими акцентами подчеркивает гладкость кожи. Глубокое декольте и высокий вырез на ножках зрительно корректирует силуэт. Сзади модель белья обеспечивает обширный интимный доступ: полностью открыта спина и ягодицы. Регулируемые бретели на попе скорректируют посадку боди по высоте. Кружевное розовое боди с доступом сзади CANDY GIRL One Size.  Кружевное розовое боди с доступом сзади CANDY GIRL One Size. Модель: candygirl-840048os. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: розовый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5401,7 +5537,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5439,7 +5575,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5459,7 +5595,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5475,22 +5611,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Комбинезон контактный TASHA SL</t>
+          <t>Комплект черный CANDY GIRL корсет с</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-27947-1299</t>
+          <t>id-20282-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -5502,15 +5638,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Tasha с рукавами украшен ажурным рисунком, расставляющим манящие визуальные акценты: на запястьях, груди, спинке, талии и бедрах. Комбинезон облегает всё тело и повторяет соблазнительные изгибы. подчеркивает достоинства и скрывает недостатки, сохраняя эффект обнаженного тела. Открытая область декольте и спины позволяет наслаждаться прикосновениями. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичность материала не сковывает движения, и разрешает двигаться так, как хочется. Комбинезон контактный TASHA SL.  Комбинезон контактный TASHA SL. Модель: candy-843039slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Мягкий корсет из сочетания кружева и эластичной сетки дополнен необычной съемной деталью - пластроном. Кружевной лиф выполнен с тонкими чашками, на косточках, регулируемые бретели и трехрядная застежка сзади обеспечивает идеальную посадку груди. Четыре регулируемых пажа поддерживают чулки и не позволяют корсету собраться в складки. Подходящие прозрачные матовые чулки на плотной резинке без силикона и Т-стринги завершают готовый соблазнительный образ. Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size.  Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size. Модель: candygirl-840049os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Корсеты. Цвет: черный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5525,7 +5665,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>92 % полиэстер, 8 % эластан</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5563,7 +5703,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>корсет с пажами для чулок, галстук, стринги, чулки</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5583,7 +5723,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -5599,22 +5739,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди SABRA SL</t>
+          <t>Костюм зайки CANDY GIRL CHARITY One</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-27961-1299</t>
+          <t>id-20565-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -5626,15 +5766,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сногсшибательный бесшовный комбинезон Candy Girl Sabra идеально подойдет девушкам, желающим подчеркнуть бедра и ягодицы. Костюм-сетка с рисунком боди визуально удлиняет ноги, благодаря продуманному дизайну. Ажурное плетение делает образ более женственным, а имитация пояса подчеркивает талию. Завязки на шее позволяют освободить бюст одним движением руки. Интимный доступ и усиленные носочки дарят комфорт при использовании, а эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией боди SABRA SL.  Комбинезон с имитацией боди SABRA SL. Модель: candy-843040slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье зайки из эластичного трикотажа с кружевными вставками, фалдами и имитацией шнуровки приятно удивит любого. Непрозрачный черный трикотаж зрительно добавит фигуре стройности. Рельефное кружево и оборки добавят объема груди и бедрам. Пажи с фривольными бантиками и меховой хвостик отстегиваются и дают возможность отказаться от чулок и игрового образа. Ушки-ободок легко держат нужную форму. Кружевные детали: чокер с крупным стразом-сердечком и манжеты  подчеркивают романтичное настроение. Чулки из крупной сетки с эластичной резинкой и уплотненными носочком, трикотажные G-стринги сделают образ законченным. Костюм зайки CANDY GIRL CHARITY One Size (6 предметов).  Костюм зайки CANDY GIRL CHARITY One Size (6 предметов). Модель: candygirl-841044os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5649,7 +5793,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5687,7 +5831,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье с пажами, трусы, головной убор, повязка на шею, чулки, манжеты</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5707,13 +5851,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5723,22 +5867,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Бесшовный комплект из 3 предметов</t>
+          <t>Черная мини-сорочка с розовым бантиком</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-27959-1299</t>
+          <t>id-17633-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -5750,30 +5894,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17633/17633_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из сетки Candy Girl Monique состоит из топа, колготок с имитацией чулок и пояса и стринг. Продольные полосы геометрического рисунка зрительно удлиняют и стройнят ноги. Высокая посадка пояса подчеркивает хрупкость талии, а имитация пажей приковывает внимание к аппетитным бедрам. Бесшовная и эластичная сетка повторяет каждый изгиб тела, не сковывает движения, а усиленные носочки чулок дарят комфорт при использовании. Бесшовный комплект из 3 предметов MONIQUE SL.  Бесшовный комплект из 3 предметов MONIQUE SL. Модель: candy-843041slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa SM.  Черная мини-сорочка с розовым бантиком Marquisa SM. Модель: caprice-1625smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5811,7 +5959,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5831,13 +5979,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5847,22 +5995,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Бесшовный комплект из 3 предметов LOTUS</t>
+          <t>Черная мини-сорочка с розовым бантиком</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-27960-1299</t>
+          <t>id-17634-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -5874,30 +6022,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17634/17634_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Lotus состоит из топа, чулок с поясом и стринг, и служит роскошным украшением Вашего тела. Утонченный и элегантный образ помогает создать ажурное плетение на груди и бедрах. Высокая посадка пояса подчеркивает тонкую талию, фантазийные пажи приковывают внимание к ягодицам и бедрам. Усиленные носочки чулок дарят комфорт при использовании. Эластичный материал облегает каждый изгиб женственных форм и не сковывает движения. Бесшовный комплект из 3 предметов LOTUS SL.  Бесшовный комплект из 3 предметов LOTUS SL. Модель: candy-843042slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa LXL.  Черная мини-сорочка с розовым бантиком Marquisa LXL. Модель: caprice-1629lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -5935,7 +6087,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5961,7 +6113,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5971,22 +6123,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди HERA XXL</t>
+          <t>Чёрный прозрачный комбинезон с</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-27971-1299</t>
+          <t>id-16774-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-48</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -5998,30 +6150,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16774/16774_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Облегающий бесшовный комбинезон Candy Girl Hera подчеркивает аппетитные женственные формы. Сочетание имитации ажурного боди и крупной сетки визуально делают силуэт стройнее. Визуальные акценты подчеркивают декольте, плечи и спинку, открытые для ласк и прикосновений. Завязки на шее легко развязать одной рукой и освободить грудь. Интимный доступ и усиленные носочки дарят комфорт при использовании. Благодаря эластичности комбинезон облегает фигуру как вторая кожа и не ограничивает движений. Комбинезон с имитацией боди HERA XXL.  Комбинезон с имитацией боди HERA XXL. Модель: candy-843043xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL.  Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL. Модель: caprice-6908slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6059,7 +6215,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6085,7 +6241,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -6095,22 +6251,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Комбинезон в крупную сетку JOSIE XXL</t>
+          <t>Чёрный сетчатый комбинезон с атласным</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-27958-1299</t>
+          <t>id-16465-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -6122,30 +6278,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16465/16465_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный комбинезон из сетки Candy Girl Josie расставит правильные акценты на сочных формах. Геометрический узор зрительно вытягивает силуэт. Глубокие вырезы в декольте и открытая спинка приглашают к прикосновениям. Вставка плотной сетки поддерживает бюст в комфортном положении, кроме того завязками на шее возможно регулировать положение груди. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичный материал комфортно обтягивает фигуру и не мешает разнообразным движениям. Комбинезон в крупную сетку JOSIE XXL.  Комбинезон в крупную сетку JOSIE XXL. Модель: candy-843044xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL.  Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL. Модель: caprice-6914slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -6183,7 +6343,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6203,13 +6363,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6219,12 +6379,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное платье Candy Girl</t>
+          <t>Чёрный сетчатый комбинезон с бантиками</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-24152-1299</t>
+          <t>id-16973-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6246,46 +6406,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное платье из сетки Candy Girl Sienna выгодно подчеркивает талию и расставляет соблазняющие акценты. Плотное плетение по бокам сглаживает изгибы фигуры. Эластичное бесшовное платье Candy Girl Sienna.  Эластичное бесшовное платье Candy Girl Sienna. Модель: candy-844005slb. Косметика, препараты. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Чёрный сетчатый комбинезон с бантиками Bodystocring SL.  Чёрный сетчатый комбинезон с бантиками Bodystocring SL. Модель: caprice-6916slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4248 </t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>4248</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4248 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -6311,7 +6471,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6331,13 +6491,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6347,22 +6507,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Белая сорочка Albina с кружевным лифом</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-24154-1299</t>
+          <t>id-26903-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -6374,30 +6534,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26903/26903_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное боди из сетки Candy Girl Tiara идеально садится по фигуре. Сочетание сеток разной плотности визуально вытягивает силуэт. Широкие бретели обеспечивают комфорт. Эластичное бесшовное боди Candy Girl Tiara.  Эластичное бесшовное боди Candy Girl Tiara. Модель: candy-844006slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Соблазнительная короткая сорочка с завязочкой через шею, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из эластичной сетки с рюшами. Под грудью вставка из атласной ленты. Белая сорочка Albina с кружевным лифом LXL.  Белая сорочка Albina с кружевным лифом LXL. Модель: caprice-albina-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6435,7 +6599,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6455,13 +6619,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6471,22 +6635,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ажурное бесшовное платье Candy Girl</t>
+          <t>Игровой комплект кондуктор поезда</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-24155-1299</t>
+          <t>id-26877-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -6498,30 +6662,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26877/26877_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное платье Candy Girl Vanilla  вариант изящного соблазнения. Интригующие вырезы в зоне декольте и на спине открыты для поцелуев и прикосновений. Ажурное бесшовное платье Candy Girl Vanilla.  Ажурное бесшовное платье Candy Girl Vanilla. Модель: candy-844007slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor LXL.  Игровой комплект кондуктор поезда Conductor LXL. Модель: caprice-cond-lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6559,7 +6727,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6579,13 +6747,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6595,22 +6763,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Красное бесшовное платье со стрингами</t>
+          <t>Игровой комплект кондуктор поезда</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-27969-1299</t>
+          <t>id-26893-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -6622,30 +6790,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26893/26893_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное мини-платье Candy Girl Vanilla в комплекте со стрингами - изящный наряд для соблазнения. Эластичная сетка оставляет пространство воображению, облегая каждый изгиб фигуры. Фигурные вырезы в зоне декольте и на спинке открывают доступ для поцелуев и прикосновений. Роковой и интригующий образ для страстного свидания. Красное бесшовное платье со стрингами VANILLA SL.  Красное бесшовное платье со стрингами VANILLA SL. Модель: candy-844007slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: красный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor SM.  Игровой комплект кондуктор поезда Conductor SM. Модель: caprice-cond-sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6683,7 +6855,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -6703,13 +6875,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6719,22 +6891,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Фиолетовое бесшовное боди DIAMOND SL</t>
+          <t>Белая сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-27963-1299</t>
+          <t>id-26874-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -6746,30 +6918,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26874/26874_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный дизайн смелого и сексуального боди Candy Girl Diamond делает образ неотразимым. Невесомое бесшовное боди декорировано ажурным плетением и тонкими полосами на талии, которые кокетливо украшают фигуру, при это оставляют живот, спину и ягодицы открытыми для ласк и поцелуев. Фиолетовое бесшовное боди DIAMOND SL.  Фиолетовое бесшовное боди DIAMOND SL. Модель: candy-844008sl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: фиолетовый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa LXL.  Белая сорочка с кружевным лифом и бантом Eloisa LXL. Модель: caprice-eloisa-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6807,7 +6983,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6827,13 +7003,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6843,22 +7019,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Черная сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-24158-1299</t>
+          <t>id-26876-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -6870,30 +7046,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26876/26876_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Невесомое бесшовное ажурное боди из сетки Candy Girl Diamond кокетливо открывает животик и спинку для прикосновений и поцелуев. Эластичное бесшовное боди Candy Girl Diamond.  Эластичное бесшовное боди Candy Girl Diamond. Модель: candy-844008slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Черная сорочка с кружевным лифом и бантом Eloisa SM.  Черная сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -6931,7 +7111,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -6951,13 +7131,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6967,22 +7147,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ажурное бесшовное платье Candy Girl</t>
+          <t>Белая сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-24157-1299</t>
+          <t>id-26875-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -6994,30 +7174,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26875/26875_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плетение бесшовного платья из сетки Candy Girl Kaytee подчеркивает все изгибы тела и заставляет следить за каждым движением аппетитных форм. Ажурное бесшовное платье Candy Girl Kaytee.  Ажурное бесшовное платье Candy Girl Kaytee. Модель: candy-844009slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa SM.  Белая сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -7055,7 +7239,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7075,13 +7259,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7091,22 +7275,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Красный кружевной пеньюар с бантиком</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-24159-1299</t>
+          <t>id-26887-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -7118,30 +7302,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26887/26887_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное боди из сетки Dixie от Candy Girl идеально садится по фигуре. Вертикальный узор визуально стройнит. Открытая спина провоцирует на поцелуи. Эластичное бесшовное боди Candy Girl Dixie.  Эластичное бесшовное боди Candy Girl Dixie. Модель: candy-844010slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Красный кружевной пеньюар с бантиком Eva SM.  Красный кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -7179,7 +7367,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7199,13 +7387,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7215,16 +7403,24 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с имитацией</t>
+          <t>Белый кружевной пеньюар с бантиком Eva</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-24700-1299</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+          <t>id-26883-1299</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>99999</v>
@@ -7234,30 +7430,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26883/26883_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное мини-платье из сетки Candy Girl Starr украшено сочетанием различных плетений. Оно подчеркивает талию, зону декольте и бедра. Стринги в комплекте. Бесшовное эластичное платье с имитацией топа и юбки Starr XXL.  Бесшовное эластичное платье с имитацией топа и юбки Starr XXL. Модель: candy-844011xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Белый кружевной пеньюар с бантиком Eva SM.  Белый кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7295,7 +7495,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7315,13 +7515,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7331,22 +7531,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с</t>
+          <t>Плиссированная черная сорочка Femme</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-24564-1299</t>
+          <t>id-26901-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7358,30 +7558,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26901/26901_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное платье из сетки Spice от Candy Girl с абстрактным рисунком плетения приковывает внимание к декольте. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Бесшовное эластичное платье с продольными полосками Spice XXL.  Бесшовное эластичное платье с продольными полосками Spice XXL. Модель: candy-844012xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Соблазнительная короткая сорочка на регулируемых бретелях, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из шифона с эффектом плиссе. Под грудью вставка из атласной ленты. Плиссированная черная сорочка Femme Fatale с кружевным лифом SM.  Плиссированная черная сорочка Femme Fatale с кружевным лифом SM. Модель: caprice-fatale-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7419,7 +7623,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7439,13 +7643,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7455,22 +7659,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Асимметричное эластичное платье с</t>
+          <t>Эротичный комплект с открытой спинкой</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-24561-1299</t>
+          <t>id-26882-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7482,15 +7686,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26882/26882_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное ассиметричное бесшовное платье из сетки Candy Girl Nikki с длинным рукавом. Продольный рисунок плетения зрительно вытягивает силуэт. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Асимметричное эластичное платье с продольными полосками Nikki XXL.  Асимметричное эластичное платье с продольными полосками Nikki XXL. Модель: candy-844013xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia LXL.  Эротичный комплект с открытой спинкой Lucia LXL. Модель: caprice-lucia-lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7505,7 +7713,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -7543,7 +7751,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7563,13 +7771,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7579,22 +7787,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с открытыми</t>
+          <t>Эротичный комплект с открытой спинкой</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-24701-1299</t>
+          <t>id-26881-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7606,22 +7814,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26881/26881_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное платье с рукавами 3.4 из сетки Candy Girl Merimba можно носить, открывая плечи или приоткрывая запястья. Крупное плетение открывает зону декольте, переходя в ажурное плетение на талии и бедрах. Стринги в комплекте. Бесшовное эластичное платье с открытыми плечами Merimba XXL.  Бесшовное эластичное платье с открытыми плечами Merimba XXL. Модель: candy-844014xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia SM.  Эротичный комплект с открытой спинкой Lucia SM. Модель: caprice-lucia-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Россия</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+          <t>Польша</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7659,7 +7879,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7679,13 +7899,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7695,22 +7915,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Бесшовное платье-сетка со стразами</t>
+          <t>Новогодний кружевной комплет Noelle LXL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-25685-1299</t>
+          <t>id-26890-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7722,15 +7942,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26890/26890_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo SL.  Бесшовное платье-сетка со стразами Candy Girl Cleo SL. Модель: candy-844015slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle LXL.  Новогодний кружевной комплет Noelle LXL. Модель: caprice-noelle-lxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7745,7 +7969,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -7783,7 +8007,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7803,13 +8027,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7819,16 +8043,24 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Бесшовное платье-сетка со стразами</t>
+          <t>Новогодний кружевной комплет Noelle SM</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-25684-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>id-26891-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -7838,15 +8070,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26891/26891_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo XXL.  Бесшовное платье-сетка со стразами Candy Girl Cleo XXL. Модель: candy-844015xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle SM.  Новогодний кружевной комплет Noelle SM. Модель: caprice-noelle-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7861,7 +8097,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -7899,7 +8135,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7919,13 +8155,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7935,22 +8171,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Бесшовное боди на завязочках JUNA SL</t>
+          <t>Игровой комплект медсестры Modest Nurse</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-27970-1299</t>
+          <t>id-26880-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -7962,30 +8198,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26880/26880_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное эластичное боди Candy Girl Juna визуально вытягивает силуэт, благодаря высоким вырезам и V-образному дизайну плетения. Завязки на шее позволяют освободить бюст одним движением руки. Откровенное боди интригует и заставляет воображение рисовать пикантные сценарии страстного свидания. Бесшовное боди на завязочках JUNA SL.  Бесшовное боди на завязочках JUNA SL. Модель: candy-844021slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Раскрепощенная медсестра - мечта любого. В этом вам помогут короткая форменная эластичная сорочка с широким вырезом на груди и эротичной молнией, нарукавник и головной убор. Игровой комплект медсестры Modest Nurse SM.  Игровой комплект медсестры Modest Nurse SM. Модель: caprice-nurse-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -8023,7 +8263,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>мини-платье, нарукавник, головной убор</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8043,13 +8283,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -8059,22 +8299,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Бесшовное платье с открытой спиной</t>
+          <t>Игровой новогодний комплект LADY SANTA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-27946-1299</t>
+          <t>id-26888-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -8086,30 +8326,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26888/26888_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантное утонченное бесшовное платье Candy Girl Fiona из эластичной сетки облегает каждый изгиб фигуры, подчеркивая женственные формы. Оригинальный дизайн сочетает равномерное плетение и крупную сетку. Акцентные вставки, имитирующие шнуровку, зрительно вытягивают фигуру и подчеркивают зону декольте. Открытая спинка и плечи облегчают образ, а завязки на шее позволяют быстро обнажить грудь, ведь накал страсти может стать внезапным и сногсшибательным. Трусики-стринги в комплекте. Бесшовное платье с открытой спиной FIONA SL.  Бесшовное платье с открытой спиной FIONA SL. Модель: candy-844022slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA LXL.  Игровой новогодний комплект LADY SANTA LXL. Модель: caprice-santa-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -8147,7 +8391,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>мини-платье, стринги, головной убор</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8167,13 +8411,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -8183,22 +8427,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Бесшовное платье с открытой спиной ELLA</t>
+          <t>Игровой новогодний комплект LADY SANTA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-27962-1299</t>
+          <t>id-26889-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -8210,30 +8454,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26889/26889_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное платье Candy Girl Ella из плотной сетки подчеркивает самые выгодные ракурсы тела. Эластичный материал идеально облегает фигуру и демонстрирует волнительные изгибы. Кружевные вставки переносят акцент на талию и грудь, которая комфортно поддерживается с помощью широких бретелей. Пикантная особенность - в открытой спинке, украшенной крестообразным плетением, что оставляет максимальное пространство для ласк и прикосновений. Бесшовное платье с открытой спиной ELLA XXL.  Бесшовное платье с открытой спиной ELLA XXL. Модель: candy-844023slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: вишневый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA SM.  Игровой новогодний комплект LADY SANTA SM. Модель: caprice-santa-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8271,7 +8519,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>мини-платье, стринги, головной убор</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8291,13 +8539,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -8307,22 +8555,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Бесшовное мини-платье DARCY XXL</t>
+          <t>Новогодний игровой комплект Sexy Santa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-27956-1299</t>
+          <t>id-26892-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -8334,30 +8582,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-платье Candy Girl Darcy с рукавами выполнено из эластичной кружевной сетки. Бесшовный ажурный материал облегает фигуру как вторая кожа, подчеркивая аппетитные формы и повторяя изгибы. Геометричный рисунок расставляет правильные акценты на декольте и талии. V-образная вставка плотной сетки зрительно вытягивает силуэт и привлекает внимание к груди. Это платье идеально подойдет для девушек, которые хотят подчеркнуть свою сексуальность. Бесшовное мини-платье DARCY XXL.  Бесшовное мини-платье DARCY XXL. Модель: candy-844024xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эротичный пеньюар из мягкой кружевной ткани с оторочкой белоснежного пуха и завязочками на груди, животик открыт. В комплекте трусики-стринги из эластичной ткани и кружевной колпак. Новогодний игровой комплект Sexy Santa LXL.  Новогодний игровой комплект Sexy Santa LXL. Модель: caprice-sexy-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8395,7 +8647,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>мини-платье, стринги, колпак на голову</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8415,13 +8667,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -8431,22 +8683,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Бесшовное платье на тонких бретелях</t>
+          <t>Бирюзовый комплект Valery LXL</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-27973-1299</t>
+          <t>id-28268-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -8458,30 +8710,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28268/28268_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Тонкое и невесомое платье Candy Girl Camilla оставляет иллюзию орнамента на теле. Бесшовное мини-платье на тонких бретелях сочетает в себе ажурное плетение и крупную сетку, визуально стройнит и вытягивает силуэт. Благодаря эластичности материала, платье облегает фигуру, повторяя волнующие изгибы. Оголенные плечи, декольте и спинка манят к прикосновениям. Бесшовное платье на тонких бретелях CAMILLA  XXL.  Бесшовное платье на тонких бретелях CAMILLA  XXL. Модель: candy-844025xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Романтичный комплект, состоящий из полупрозрачной эластичной сорочки с кружевным бюстом и трусиков. По низу сорочки оборка. Бирюзовый комплект Valery LXL.  Бирюзовый комплект Valery LXL. Модель: caprice-valery-lxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: бирюзовый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8519,7 +8775,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8539,13 +8795,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -8555,12 +8811,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок и пояса</t>
+          <t>Комплект цельный (платье+чулки) LULU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-27955-1299</t>
+          <t>id-19671-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8582,30 +8838,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19671/19671_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необходимые элементы женского гардероба для соблазнения - чулки с поясом и стринги - представлены в коллекции Candy Girl моделью Christabel. Изюминкой фасона являются стразы, которые равномерно рассыпаны от бедер до щиколоток. Падающий свет на стразах мерцает радужным сиянием. Пажи из тонких перемычек подчеркивают бедра, добавляя сексуальный настрой, а сетка привлекает внимание к стройности женских ножек. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса CHRISTABEL SL.  Колготки с имитацией чулок и пояса CHRISTABEL SL. Модель: candy-845000slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Комплект цельный (платье+чулки) LULU.  Комплект цельный (платье+чулки) LULU. Модель: caprise-2577slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8643,7 +8903,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>колготки, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8663,13 +8923,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -8679,12 +8939,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок и пояса</t>
+          <t>Колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-27957-1299</t>
+          <t>id-19680-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8706,30 +8966,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом и стринги Candy Girl Ariel выполнены из сетки равномерного плетения с ажурными вставками. Эластичные чулки подчеркивают стройность, а пажи и пояс с высокой посадкой зрительно удлиняют ноги и акцентируют внимание на ягодицах. Кружевные пояс и резинки чулок превращают классические чулки из сетки в роскошный аксессуар. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса ARIEL SL.  Колготки с имитацией чулок и пояса ARIEL SL. Модель: candy-845001slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c701slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8767,7 +9031,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>колготки, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8787,38 +9051,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Костюм официанта CANDY BOY ARCHER One</t>
+          <t>Колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-20529-1299</t>
+          <t>id-19666-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -8830,15 +9094,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный жилет-майка с отложным воротником, продольными полосами и контрастными пуговицами добавит стройности. Трусы-боксеры из эластичной сетки обеспечат идеальный обзор сзади. Галстук-бабочка на застежке липучка и манжеты на кнопках дополнят образ. Все аксессуары легко надеть самостоятельно. Костюм официанта CANDY BOY ARCHER One Size.  Костюм официанта CANDY BOY ARCHER One Size. Модель: candyboy-801012os. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c703slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -8853,7 +9121,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -8891,7 +9159,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>майка, трусы, манжеты, галстук-бабочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8911,13 +9179,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -8927,22 +9195,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Платье CANDY GIRL XL</t>
+          <t>Боди с узором Caprise</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-20531-1299</t>
+          <t>id-19668-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -8954,15 +9222,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19668/19668_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное платье из ткани с эффектом wetlook, с прозрачными вставками, открытой спинкой. Платье CANDY GIRL XL.  Платье CANDY GIRL XL. Модель: candygirl-840021xl. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Боди с узором Caprise.  Боди с узором Caprise. Модель: caprise-c800slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -8977,7 +9249,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9035,13 +9307,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9051,22 +9323,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Эротическое боди CANDY GIRL XL</t>
+          <t>Кремовый корсаж Blanchet corset LXL</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-20535-1299</t>
+          <t>id-13937-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -9078,15 +9350,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди выполнено из эластичной сетки и кружева. Бюст на косточках оформлен эластичными лентами и дополнен вставками кружева. Регулируемые бретели украшены сатиновыми бантиками. Ширина продольных вырезов спереди регулируется сатиновыми лентами. Фигурные вырезы сзади обеспечивают легкий доступ к спине и интимной зоне. Эротическое боди CANDY GIRL XL.  Эротическое боди CANDY GIRL XL. Модель: candygirl-840039xl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: красный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эротический корсет с подвязками для чулок молочного цвета Blanchet и стринги. Корсет выполнен из мягкой тонкой эластичной атласной ткани с кружевными вставками. По низу изделия оборочка в виде юбочки. Лиф корсета мягкий, на косточках. Бретели и подвязки регулируются. Кремовый корсаж Blanchet corset LXL.  Кремовый корсаж Blanchet corset LXL. Модель: casmir-03217lxlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: молочный. Материал: 50% полиэстер, 42% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -9101,7 +9377,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>50% полиэстер, 42% полиамид, 8% эластан</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9139,7 +9415,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>корсаж, стринги</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9159,13 +9435,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9175,22 +9451,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Кружевное розовое боди с доступом сзади</t>
+          <t>Прозрачная сорочка с кружевом Nicolette</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-20283-1299</t>
+          <t>id-16200-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -9202,30 +9478,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Рельефное кружево с блестящими акцентами подчеркивает гладкость кожи. Глубокое декольте и высокий вырез на ножках зрительно корректирует силуэт. Сзади модель белья обеспечивает обширный интимный доступ: полностью открыта спина и ягодицы. Регулируемые бретели на попе скорректируют посадку боди по высоте. Кружевное розовое боди с доступом сзади CANDY GIRL One Size.  Кружевное розовое боди с доступом сзади CANDY GIRL One Size. Модель: candygirl-840048os. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: розовый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Свободная черная комбинация из прозрачной эластичной ткани. На груди отделка из черного испанского эластичного кружева. Подол комбинации декорирован узкой кружевной полоской. Регулируемые бретели. Прозрачная сорочка с кружевом Nicolette Chemise LXL.  Прозрачная сорочка с кружевом Nicolette Chemise LXL. Модель: casmir-03219lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 73% полиэстер, 18% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>73% полиэстер, 18% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9263,7 +9543,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9283,13 +9563,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -9299,22 +9579,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Комплект черный CANDY GIRL корсет с</t>
+          <t>Ассиметричный комбинезон с цветочным</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-20282-1299</t>
+          <t>id-22074-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9326,30 +9606,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий корсет из сочетания кружева и эластичной сетки дополнен необычной съемной деталью - пластроном. Кружевной лиф выполнен с тонкими чашками, на косточках, регулируемые бретели и трехрядная застежка сзади обеспечивает идеальную посадку груди. Четыре регулируемых пажа поддерживают чулки и не позволяют корсету собраться в складки. Подходящие прозрачные матовые чулки на плотной резинке без силикона и Т-стринги завершают готовый соблазнительный образ. Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size.  Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size. Модель: candygirl-840049os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Корсеты. Цвет: черный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эта модель белья создана для романтичных и творческих натур. Соблазнительное переплетение нитей сеточки с цветами роз, обнаженное плечо. . Этот комбинезон словно дымка обволакивает Ваше тело, и с первого взгляда даёт понять партнёру, что Вы - особенная. Ассиметричный комбинезон с цветочным плетением SM.  Ассиметричный комбинезон с цветочным плетением SM. Модель: casmir-h1057smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9387,7 +9671,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>корсет с пажами для чулок, галстук, стринги, чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9407,13 +9691,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9423,22 +9707,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Костюм учительницы CANDY GIRL Ginger</t>
+          <t>Сексапильный топ с чулками и кружевной</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-20528-1299</t>
+          <t>id-22072-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9450,15 +9734,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Топ wetlook с контрастной отделкой и вставкой из прозрачной сетки, открывающей ложбинку груди. Юбка wetlook украшена трикотажными полосатыми вставками, подчеркивающее каждое движение. Пажи отстегиваются и позволяют изменить образ. Галстук на застежке липучке, чулки из крупной сетки с эластичной резинкой и уплотненными носочком, очки, перчатки до локтя и указка - в комплекте.Внимание!!! Внешний вид аксессуаров может отличаться от изображенных. Костюм учительницы CANDY GIRL Ginger One Size.  Костюм учительницы CANDY GIRL Ginger One Size. Модель: candygirl-841042os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый, красный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Комбинезон выделяется необычным сочетанием средней сетки и геометрических орнаментов. Топ с экстремальным декольте сделает Вашу грудь ещё желаннее. В наборе ажурная маска для создания завораживающего образа незнакомки. Сексапильный топ с чулками и кружевной маской SM.  Сексапильный топ с чулками и кружевной маской SM. Модель: casmir-h1063smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -9473,7 +9761,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>97% полиэстер, 3% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9511,7 +9799,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>Топ, юбка с пажами, трусы, перчатки, галстук, чулки, очки, указка</t>
+          <t>комбинезон, маска</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9531,13 +9819,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9547,22 +9835,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Костюм зайки CANDY GIRL CHARITY One</t>
+          <t>Чулки под пояс в мелкую сеточку Casmir</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-20565-1299</t>
+          <t>id-27915-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -9574,15 +9862,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье зайки из эластичного трикотажа с кружевными вставками, фалдами и имитацией шнуровки приятно удивит любого. Непрозрачный черный трикотаж зрительно добавит фигуре стройности. Рельефное кружево и оборки добавят объема груди и бедрам. Пажи с фривольными бантиками и меховой хвостик отстегиваются и дают возможность отказаться от чулок и игрового образа. Ушки-ободок легко держат нужную форму. Кружевные детали: чокер с крупным стразом-сердечком и манжеты  подчеркивают романтичное настроение. Чулки из крупной сетки с эластичной резинкой и уплотненными носочком, трикотажные G-стринги сделают образ законченным. Костюм зайки CANDY GIRL CHARITY One Size (6 предметов).  Костюм зайки CANDY GIRL CHARITY One Size (6 предметов). Модель: candygirl-841044os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в мелкую сеточку сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Чулки под пояс в мелкую сеточку Casmir SL.  Чулки под пояс в мелкую сеточку Casmir SL. Модель: casmir-h2049slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -9597,7 +9889,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>85% полиамид, 15% эластан</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9635,7 +9927,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>платье с пажами, трусы, головной убор, повязка на шею, чулки, манжеты</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9655,13 +9947,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9671,22 +9963,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Черная мини-сорочка с розовым бантиком</t>
+          <t>Колготки в мелкую сеточку с имитацией</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-17633-1299</t>
+          <t>id-27917-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9698,10 +9990,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa SM.  Черная мини-сорочка с розовым бантиком Marquisa SM. Модель: caprice-1625smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки в сетку с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL.  Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL. Модель: casmir-h2107slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9721,7 +10017,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>93.5% полиамид, 6.5% эластан</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9759,7 +10055,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9779,13 +10075,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9795,22 +10091,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Черная мини-сорочка с розовым бантиком</t>
+          <t>Черные чулки под пояс в крупную сетку</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-17634-1299</t>
+          <t>id-27919-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -9822,10 +10118,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27919/27919_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa LXL.  Черная мини-сорочка с розовым бантиком Marquisa LXL. Модель: caprice-1629lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в крупную сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Черные чулки под пояс в крупную сетку SL.  Черные чулки под пояс в крупную сетку SL. Модель: casmir-h2108slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9845,7 +10145,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -9883,7 +10183,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9903,13 +10203,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -9919,22 +10219,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Чёрный прозрачный комбинезон с</t>
+          <t>Шелковистые контактные колготки Casmir</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-16774-1299</t>
+          <t>id-28133-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>42-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -9946,10 +10246,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28133/28133_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL.  Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL. Модель: caprice-6908slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексапильные гладкие колготки с интимным доступом. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах, они прекрасно имитируют возбуждающие чулочки. Приятны на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Шелковистые контактные колготки Casmir SL.  Шелковистые контактные колготки Casmir SL. Модель: casmir-h2112slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9969,7 +10273,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10027,13 +10331,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10043,12 +10347,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Чёрный сетчатый комбинезон с атласным</t>
+          <t>Колготки с доступом в мелкую сетку и</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-16465-1299</t>
+          <t>id-27914-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10070,10 +10374,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL.  Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL. Модель: caprice-6914slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексапильные колготки с интимным доступом. Мелкая сетка и стразы делают их особо привлекательными. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах. Разожгут даже потухший огонь страсти! Приятные на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Колготки с доступом в мелкую сетку и стразами SL.  Колготки с доступом в мелкую сетку и стразами SL. Модель: casmir-h2122slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10093,7 +10401,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>85% полиамид, 15% эластан</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10131,7 +10439,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10151,13 +10459,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10167,12 +10475,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Чёрный сетчатый комбинезон с бантиками</t>
+          <t>Колготки лайкровые у с имитацией чулок</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-16973-1299</t>
+          <t>id-27918-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -10194,10 +10502,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный сетчатый комбинезон с бантиками Bodystocring SL.  Чёрный сетчатый комбинезон с бантиками Bodystocring SL. Модель: caprice-6916slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся. Очень приятны к телу и на ощупь. Колготки лайкровые у с имитацией чулок и пояса Casmir SL.  Колготки лайкровые у с имитацией чулок и пояса Casmir SL. Модель: casmir-h2124slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10217,7 +10529,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>93.5% полиамид, 6.5% эластан</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10255,7 +10567,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10275,13 +10587,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10291,24 +10603,16 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Белая сорочка Albina с кружевным лифом</t>
+          <t>Гель для орального секса c ягодным</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-26903-1299</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>48-50</t>
-        </is>
-      </c>
+          <t>id-23846-1299</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>99999</v>
@@ -10318,42 +10622,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительная короткая сорочка с завязочкой через шею, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из эластичной сетки с рюшами. Под грудью вставка из атласной ленты. Белая сорочка Albina с кружевным лифом LXL.  Белая сорочка Albina с кружевным лифом LXL. Модель: caprice-albina-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальный ягодный взрыв! Сделайте ваш оральный секс еще интереснее и приятнее. Нежная текстура отлично скользит и оказывает приятное действие, а благодаря приятному ягодному вкусу, не позволяет оторваться от столь приятного процесса. Отличный вариант для игры в позе 69 - с этим гелем вы проведете много времени в спальне!.Гель для орального секса c ягодным ароматом CG (60 мл).  Гель для орального секса c ягодным ароматом CG (60 мл). Модель: cg-2202-02. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>90% полиэстер, 10% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10379,7 +10687,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10399,13 +10707,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10415,24 +10723,16 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Игровой комплект кондуктор поезда</t>
+          <t>Стимулирующий крем для клитора с</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-26877-1299</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-25848-1299</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>99999</v>
@@ -10442,42 +10742,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor LXL.  Игровой комплект кондуктор поезда Conductor LXL. Модель: caprice-cond-lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Охлаждающий, возбуждающий и нежный крем, который разнообразит вашу сексуальную игру - вдвоем или наедине с собой. Повышает чувствительность и интенсивность оргазма. Идеально подходит для прелюдии. Прохладный, эффективный и волнующий стимулятор для нее приятно покалывает при применении. Увеличивает приток крови, так что вы сможете наслаждаться более сладкими и глубокими оргазмами. Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл).  Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл). Модель: cg-3002-01. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>90% полиэстер, 10% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10503,7 +10807,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10523,40 +10827,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Игровой комплект кондуктор поезда</t>
+          <t>Расслабляющий анальный крем CG (20 мл)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-26893-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-23842-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
@@ -10566,42 +10862,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor SM.  Игровой комплект кондуктор поезда Conductor SM. Модель: caprice-cond-sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Этот нежный крем снижает чувствительность заднего прохода, чтобы вы смогли мягко и легко пройти путь к приятной анальной игре. Идеально подходит для усиления ощущений. Нанесите небольшое количество геля непосредственно на кончик пальца и аккуратно нанесите на анус за 10-15 минут до проникновения. Этот продукт не предназначен для маскировки боли! Если вы испытываете какой-либо дискомфорт, остановитесь и прислушайтесь к своему телу. Может использоваться с вибрирующими игрушками. Расслабляющий анальный крем CG (20 мл).  Расслабляющий анальный крем CG (20 мл). Модель: cg-3103-00. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>90% полиэстер, 10% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr"/>
+          <t>20 мл</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10627,7 +10927,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10647,40 +10947,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Бархатное платье с кружевомElmira SL</t>
+          <t>Водно-силиконовый лубрикант CG Woo Hoo</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-28266-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-24209-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10690,42 +10982,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24209/24209_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепное мини-платье с кружевной оторочкой сделано из эластичного бархата, поэтому подойдет и для романтического вечера, и для похода в клуб. Бретели регулируются. Бархатное платье с кружевомElmira SL.  Бархатное платье с кружевомElmira SL. Модель: caprice-elmira-slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиэстер, 10% нейлон. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Действительно универсальный лубрикант-гибрид. Гладкий и шелковистый благодаря симбиозу силикона и воды, продлевает удовольствие от близости без суеты и частого нанесения продукта. Водная основа дает нежнейшее скольжение и с заботой относится к слизистым влагалища и pH балансу, а силиконовая увеличивает длительность скольжения и позволяет прочувствовать каждый миллиметр удовольствия. Долго, восхитительно и комфортно вместе с CG!.Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл).  Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл). Модель: cg-5002-04. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: карамельный. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>90% полиэстер, 10% нейлон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr"/>
+          <t>130 мл</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -10751,7 +11047,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10771,40 +11067,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Белая сорочка с кружевным лифом и</t>
+          <t>Орально-вагинальный лубрикант на водной</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-26874-1299</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-24207-1299</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>99999</v>
@@ -10814,42 +11102,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa LXL.  Белая сорочка с кружевным лифом и бантом Eloisa LXL. Модель: caprice-eloisa-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Наслаждайтесь фирменной формулой лубриканта на водной основе от CG, наполненной восхитительным вкусом и ароматом кокоса, который делает смазку идеальной для универсального использования во время прелюдии - орального секса и полового акта. Насыщенный реалистичный кокос расслабляет и возбуждает воображение - словно вы на райском острове. Не содержит сахара и парабенов. Удобная упаковка с дозатором делает процесс еще более комфортным. Орально-вагинальный лубрикант на водной основе CG (130 мл).  Орально-вагинальный лубрикант на водной основе CG (130 мл). Модель: cg-5003-04. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>90% полиэстер, 10% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+          <t>130 мл</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -10875,7 +11167,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10895,13 +11187,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10911,22 +11203,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Черная сорочка с кружевным лифом и</t>
+          <t>Белые эластичные перчатки выше локтя</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-26876-1299</t>
+          <t>id-26905-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -10938,10 +11230,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26905/26905_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Черная сорочка с кружевным лифом и бантом Eloisa SM.  Черная сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изысканные перчатки для рокового образа обольстительницы! Красивые эластичные перчатки чуть выше локтя. Если перчатки - это единственная одежда, которая на Вас будет надета в эту ночь, будьте уверены: Ваш мужчина сойдет с ума от желания и восторга!.Белые эластичные перчатки выше локтя.  Белые эластичные перчатки выше локтя. Модель: cr-3427w. Белье. Эротическое белье для женщин &gt; Перчатки, подвязки на ногу, маски для сна. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10999,7 +11295,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11025,7 +11321,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -11035,12 +11331,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Белая сорочка с кружевным лифом и</t>
+          <t>Красная длинная сорочка с вырезом сзади</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-26875-1299</t>
+          <t>id-16736-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -11062,10 +11358,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa SM.  Белая сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Длинная сорочка с сексуальным разрезом сзади, выполненная из мягкого, полупрозрачного материала и ажурного кружева. Регулируемые бретели скрещены на спине.На линии груди небольшой бант. Красная длинная сорочка с вырезом сзади SM.  Красная длинная сорочка с вырезом сзади SM. Модель: cr-3883smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11149,7 +11449,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -11159,22 +11459,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Красный кружевной пеньюар с бантиком</t>
+          <t>Комплект из гипюрового платья в пол,</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-26887-1299</t>
+          <t>id-17296-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -11186,10 +11486,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Красный кружевной пеньюар с бантиком Eva SM.  Красный кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Длинное полупрозрачное кружевное платье. Очень сексуальное и привлекательное, оно не оставит равнодушным ни одного мужчину. Комплект белья под кожу манит и переливается под нежным цветочным узором. Комплект из гипюрового платья в пол, лифа и трусиков под кожу M.  Комплект из гипюрового платья в пол, лифа и трусиков под кожу M. Модель: cr-4049mb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11247,7 +11551,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>платье, лиф, трусики</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11267,13 +11571,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11283,17 +11587,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Белый кружевной пеньюар с бантиком Eva</t>
+          <t>Черный эротический пеньюар ChiliRose L</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-26883-1299</t>
+          <t>id-23445-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -11310,10 +11614,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Белый кружевной пеньюар с бантиком Eva SM.  Белый кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose L.  Черный эротический пеньюар ChiliRose L. Модель: cr-4084lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11397,7 +11705,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -11407,22 +11715,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Плиссированная белая сорочка Femme</t>
+          <t>Красный эротический пеньюар ChiliRose L</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-26900-1299</t>
+          <t>id-23448-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -11434,10 +11742,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительная короткая сорочка на регулируемых бретелях, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из шифона с эффектом плиссе. Под грудью вставка из атласной ленты. Плиссированная белая сорочка Femme Fatale с кружевным лифом LXL.  Плиссированная белая сорочка Femme Fatale с кружевным лифом LXL. Модель: caprice-fatale-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose L.  Красный эротический пеньюар ChiliRose L. Модель: cr-4084lr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11521,7 +11833,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -11531,22 +11843,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Плиссированная черная сорочка Femme</t>
+          <t>Черный эротический пеньюар ChiliRose M</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-26901-1299</t>
+          <t>id-23446-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -11558,10 +11870,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительная короткая сорочка на регулируемых бретелях, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из шифона с эффектом плиссе. Под грудью вставка из атласной ленты. Плиссированная черная сорочка Femme Fatale с кружевным лифом SM.  Плиссированная черная сорочка Femme Fatale с кружевным лифом SM. Модель: caprice-fatale-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose M.  Черный эротический пеньюар ChiliRose M. Модель: cr-4084mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11619,7 +11935,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11645,7 +11961,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11655,22 +11971,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Эротичный комплект с открытой спинкой</t>
+          <t>Красный эротический пеньюар ChiliRose M</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-26882-1299</t>
+          <t>id-23447-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -11682,10 +11998,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia LXL.  Эротичный комплект с открытой спинкой Lucia LXL. Модель: caprice-lucia-lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose M.  Красный эротический пеньюар ChiliRose M. Модель: cr-4084mr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11763,13 +12083,13 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11779,22 +12099,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Эротичный комплект с открытой спинкой</t>
+          <t>Красный халатик с ажурными рукавами XL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-26881-1299</t>
+          <t>id-26907-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -11806,10 +12126,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia SM.  Эротичный комплект с открытой спинкой Lucia SM. Модель: caprice-lucia-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Ярко-красный элегантный халатик из непрозрачного материала с ажурными вставками. Модель на запах завязывается спереди на пояс, подчеркивающий силуэт. Ниспадающие рукава заканчиваются широким ажурным кружевом. В комплекте изящные трусики-стринги. Изделие упаковано в фирменную коробочку и станет идеальным подарком. Красный халатик с ажурными рукавами XL.  Красный халатик с ажурными рукавами XL. Модель: cr-4084rxl. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11867,7 +12191,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -11887,13 +12211,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11903,22 +12227,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Новогодний кружевной комплет Noelle LXL</t>
+          <t>Женский эротический пеньюар ChiliRose</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-26890-1299</t>
+          <t>id-20234-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -11930,10 +12254,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle LXL.  Новогодний кружевной комплет Noelle LXL. Модель: caprice-noelle-lxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Женский эротический пеньюар ChiliRose XXL.  Женский эротический пеньюар ChiliRose XXL. Модель: cr-4084xxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11991,7 +12319,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12011,13 +12339,13 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -12027,22 +12355,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Новогодний кружевной комплет Noelle SM</t>
+          <t>Красный коротенький халатик с кружевом</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26891-1299</t>
+          <t>id-26908-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -12054,10 +12382,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle SM.  Новогодний кружевной комплет Noelle SM. Модель: caprice-noelle-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Красный коротенький халатик с кружевом XL.  Красный коротенький халатик с кружевом XL. Модель: cr-4110xlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12077,7 +12409,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -12115,7 +12447,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12135,13 +12467,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -12151,22 +12483,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Игровой комплект медсестры Modest Nurse</t>
+          <t>Коротенький халатик с кружевом XXL</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-26880-1299</t>
+          <t>id-26909-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -12178,10 +12510,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раскрепощенная медсестра - мечта любого. В этом вам помогут короткая форменная эластичная сорочка с широким вырезом на груди и эротичной молнией, нарукавник и головной убор. Игровой комплект медсестры Modest Nurse SM.  Игровой комплект медсестры Modest Nurse SM. Модель: caprice-nurse-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Коротенький халатик с кружевом XXL.  Коротенький халатик с кружевом XXL. Модель: cr-4110xxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12201,7 +12537,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12239,7 +12575,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>мини-платье, нарукавник, головной убор</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12259,13 +12595,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12275,12 +12611,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Игровой новогодний комплект LADY SANTA</t>
+          <t>Женский эротический комплект ChiliRose</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-26888-1299</t>
+          <t>id-28214-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12290,7 +12626,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -12302,10 +12638,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA LXL.  Игровой новогодний комплект LADY SANTA LXL. Модель: caprice-santa-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Длинное черное тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose L.  Женский эротический комплект ChiliRose L. Модель: cr-4136lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12325,7 +12665,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -12363,7 +12703,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, головной убор</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12383,13 +12723,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -12399,22 +12739,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Игровой новогодний комплект LADY SANTA</t>
+          <t>Женский эротический комплект ChiliRose</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-26889-1299</t>
+          <t>id-20231-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -12426,10 +12766,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA SM.  Игровой новогодний комплект LADY SANTA SM. Модель: caprice-santa-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Длинное, черное, тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose M.  Женский эротический комплект ChiliRose M. Модель: cr-4136m. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12487,7 +12831,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, головной убор</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12507,13 +12851,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12523,22 +12867,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Новогодний игровой комплект Sexy Santa</t>
+          <t>Женский эротический комплект ChiliRose</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-26892-1299</t>
+          <t>id-28215-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -12550,10 +12894,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичный пеньюар из мягкой кружевной ткани с оторочкой белоснежного пуха и завязочками на груди, животик открыт. В комплекте трусики-стринги из эластичной ткани и кружевной колпак. Новогодний игровой комплект Sexy Santa LXL.  Новогодний игровой комплект Sexy Santa LXL. Модель: caprice-sexy-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Длинное черное тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose S.  Женский эротический комплект ChiliRose S. Модель: cr-4136sb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12573,7 +12921,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12611,7 +12959,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, колпак на голову</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12631,38 +12979,34 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>для женщин</t>
-        </is>
-      </c>
+          <t>CHILIROSE</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Бирюзовый комплект Valery LXL</t>
+          <t>Кокетливая кружевная сорочка с</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-28268-1299</t>
+          <t>id-19751-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -12674,10 +13018,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Романтичный комплект, состоящий из полупрозрачной эластичной сорочки с кружевным бюстом и трусиков. По низу сорочки оборка. Бирюзовый комплект Valery LXL.  Бирюзовый комплект Valery LXL. Модель: caprice-valery-lxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: бирюзовый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальный комплектик из кружевной сорочки и стринг сведет с ума любого мужчину. Кокетливая кружевная сорочка с бантиками XL.  Кокетливая кружевная сорочка с бантиками XL. Модель: cr-4163xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12755,13 +13103,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12771,22 +13119,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Комплект цельный (платье+чулки) LULU</t>
+          <t>Черная длинная сорочка с фигурным</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-19671-1299</t>
+          <t>id-19746-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -12798,10 +13146,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комплект цельный (платье+чулки) LULU.  Комплект цельный (платье+чулки) LULU. Модель: caprise-2577slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Восхитительная длинная сорочка с кружевом, открытой спинкой и высоким разрезом сзади сведет с ума Вашего партнера. Его возбуждению не будет предела! Ночь будет очень жаркой!.Черная длинная сорочка с фигурным вырезом на спине M.  Черная длинная сорочка с фигурным вырезом на спине M. Модель: cr-4167mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12859,7 +13211,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -12879,13 +13231,13 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -12895,12 +13247,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок</t>
+          <t>Открытый сбоку комбинезон с узором роз</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-19680-1299</t>
+          <t>id-23516-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -12922,10 +13274,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c701slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Открытый комбинезон из мягкого тюля, украшенного вышивкой, и крупной перфорации по всей длине. Открытый сбоку комбинезон с узором роз SL.  Открытый сбоку комбинезон с узором роз SL. Модель: cr-4261slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12945,7 +13301,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>

--- a/!parsed_items_100/1299/1299_399-500.xlsx
+++ b/!parsed_items_100/1299/1299_399-500.xlsx
@@ -639,49 +639,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Белье</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Сетчатый комбинезон без интимного</t>
+          <t>Бесшовный комбинезон-сетка со стразами</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-24560-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>id-25683-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>универсальный (42-46)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24560/24560_комбинезон_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_7_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный комбинезон из ажурной бесшовной сетки без интимного доступа Candy Girl Renee подчеркивает талию, выборочно открывает чувственные зоны на спине. Усиленные носочки обеспечивают комфорт при ношении. Сетчатый комбинезон без интимного доступа Ren&amp;#233.e.  Сетчатый комбинезон без интимного доступа Ren. Модель: candy-843025slb. CANDY GIRL. #233. Цвет: стандартный. Материал: 5 2 1 4 6 3. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL. Модель: candy-843033slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -691,17 +699,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5 2 1 4 6 3</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -739,7 +747,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>черный</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -775,24 +783,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон с</t>
+          <t>Бесшовный комбинезон-сетка со стразами</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-24697-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1XL</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>52-54</t>
-        </is>
-      </c>
+          <t>id-25682-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -804,32 +804,32 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_6_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди Kasandrah от Candy Girl визуально вытягивает ноги и подчеркивает зону декольте. Вырез в интимной зоне, стринги и усиленные плотным плетением стопы чулок обеспечивают комфорт и эстетичность при использовании. Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL.  Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL. Модель: candy-843027xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -867,7 +867,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией топа и чулок</t>
+          <t>Комбинезон с имитацией ками и чулок</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-24563-1299</t>
+          <t>id-27948-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -932,17 +932,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_5_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка из топа с короткими рукавами и чулок Baby от Candy Girl. Сочетание ажурного и геометрического рисунков плетения притягивает взгляд. Стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Комбинезон с имитацией топа и чулок Baby XXL.  Комбинезон с имитацией топа и чулок Baby XXL. Модель: candy-843030xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Провокационный костюм-сетка Candy Girl Giovanna - для смелых девушек. Шикарный бесшовный наряд украшает женственные формы, расставляя выгодные визуальные акценты. Комбинезон имитирует топ и чулки с пажами, стринги в комплекте. Плотное плетение аккуратно обхватывает ноги и талию. Роскошное ажурное плетение украшает бюст, спинку и бедра. Завязки на шее в одно мгновение позволяют оголить грудь. Открыты</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -1031,22 +1031,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон с</t>
+          <t>Фантазийный комбинезон HARPER SL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-24698-1299</t>
+          <t>id-27972-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_5_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный сетчатый комбинезон с длинными рукавами Jewelle от Candy Girl равномерно украшен россыпью радужных страз, мерцающих в полумраке, от рукавов до лодыжек. Классическое сеточное плетение  всегда беспроигрышный выбор. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL.  Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL. Модель: candy-843031xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Восхитительный комбинезон из эластичной сетки Candy Girl Harper идеально подойдет девушкам, желающим сделать акцент на бедрах и ягодицах. Оригинальный дизайн сочетает разное по крупности плетение сетки, создавая силуэт боди на теле. Крупная сетка эффектно выглядит в виде шнуровки по бокам и на груди, а также демонстрирует стройность ног, визуально вытягивая силуэт. Верх комбинезона с завязками на шее легко снимается и обнажает грудь. Интимный доступ и усиленные носочки добавляют комфорт при использовании, а эластичность бесшовного материала не сковывает движения, и позволяет двигаться так, как хочется. Фантазийный комбинезон HARPER SL.  Фантазийный комбинезон HARPER SL. Модель: candy-843038slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1123,7 +1123,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1159,22 +1159,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Контактный эластичный комбинезон со</t>
+          <t>Комбинезон контактный TASHA SL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-24559-1299</t>
+          <t>id-27947-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_5_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди и чулок Candy Girl Angelle спереди равномерно украшен россыпью серебристых страз в зоне груди и талии. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт и эстетичность при использовании. Контактный эластичный комбинезон со стразами Angelle XXL.  Контактный эластичный комбинезон со стразами Angelle XXL. Модель: candy-843032xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Tasha с рукавами украшен ажурным рисунком, расставляющим манящие визуальные акценты: на запястьях, груди, спинке, талии и бедрах. Комбинезон облегает всё тело и повторяет соблазнительные изгибы. подчеркивает достоинства и скрывает недостатки, сохраняя эффект обнаженного тела. Открытая область декольте и спины позволяет наслаждаться прикосновениями. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичность материала не сковывает движения, и разрешает двигаться так, как хочется. Комбинезон контактный TASHA SL.  Комбинезон контактный TASHA SL. Модель: candy-843039slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1251,7 +1251,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Бесшовный комбинезон-сетка со стразами</t>
+          <t>Комбинезон с имитацией боди SABRA SL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-25683-1299</t>
+          <t>id-27961-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25683/25683_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_5_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra SL. Модель: candy-843033slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сногсшибательный бесшовный комбинезон Candy Girl Sabra идеально подойдет девушкам, желающим подчеркнуть бедра и ягодицы. Костюм-сетка с рисунком боди визуально удлиняет ноги, благодаря продуманному дизайну. Ажурное плетение делает образ более женственным, а имитация пояса подчеркивает талию. Завязки на шее позволяют освободить бюст одним движением руки. Интимный доступ и усиленные носочки дарят комфорт при использовании, а эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией боди SABRA SL.  Комбинезон с имитацией боди SABRA SL. Модель: candy-843040slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1379,7 +1379,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1415,16 +1415,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Бесшовный комбинезон-сетка со стразами</t>
+          <t>Бесшовный комплект из 3 предметов</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-25682-1299</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>id-27959-1299</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>99999</v>
@@ -1436,32 +1444,32 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25682/25682_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_5_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный бесшовный костюм-сетка с открытым плечом Candy Girl Elektra от верхней бретели до лодыжек равномерно украшен россыпью радужных страз, мерцающих в полумраке. Сочетание разных плетений сеток зрительно вытягивает фигуру. Вырез в интимной зоне и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL.  Бесшовный комбинезон-сетка со стразами Candy Girl Elektra XXL. Модель: candy-843033xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальный комплект из сетки Candy Girl Monique состоит из топа, колготок с имитацией чулок и пояса и стринг. Продольные полосы геометрического рисунка зрительно удлиняют и стройнят ноги. Высокая посадка пояса подчеркивает хрупкость талии, а имитация пажей приковывает внимание к аппетитным бедрам. Бесшовная и эластичная сетка повторяет каждый изгиб тела, не сковывает движения, а усиленные носочки чулок дарят комфорт при использовании. Бесшовный комплект из 3 предметов MONIQUE SL.  Бесшовный комплект из 3 предметов MONIQUE SL. Модель: candy-843041slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1499,7 +1507,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1519,7 +1527,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1535,12 +1543,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией ками и чулок</t>
+          <t>Бесшовный комплект из 3 предметов LOTUS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-27948-1299</t>
+          <t>id-27960-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1564,12 +1572,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27948/27948_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_4_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Провокационный костюм-сетка Candy Girl Giovanna - для смелых девушек. Шикарный бесшовный наряд украшает женственные формы, расставляя выгодные визуальные акценты. Комбинезон имитирует топ и чулки с пажами, стринги в комплекте. Плотное плетение аккуратно обхватывает ноги и талию. Роскошное ажурное плетение украшает бюст, спинку и бедра. Завязки на шее в одно мгновение позволяют оголить грудь. Открытые участки спины и бедер выглядят еще более привлекательно за счет контраста с черной сеткой. Эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией ками и чулок GIOVANNA SL.  Комбинезон с имитацией ками и чулок GIOVANNA SL. Модель: candy-843037slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Lotus состоит из топа, чулок с поясом и стринг, и служит роскошным украшением Вашего тела. Утонченный и элегантный образ помогает создать ажурное плетение на груди и бедрах. Высокая посадка пояса подчеркивает тонкую талию, фантазийные пажи приковывают внимание к ягодицам и бедрам. Усиленные носочки чулок дарят комфорт при использовании. Эластичный материал облегает каждый изгиб женственных форм и не сковывает движения. Бесшовный комплект из 3 предметов LOTUS SL.  Бесшовный комплект из 3 предметов LOTUS SL. Модель: candy-843042slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1589,7 +1597,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1627,7 +1635,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>комбинезон, стринги</t>
+          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1663,22 +1671,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Фантазийный комбинезон HARPER SL</t>
+          <t>Комбинезон с имитацией боди HERA XXL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-27972-1299</t>
+          <t>id-27971-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1692,12 +1700,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27972/27972_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_5_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительный комбинезон из эластичной сетки Candy Girl Harper идеально подойдет девушкам, желающим сделать акцент на бедрах и ягодицах. Оригинальный дизайн сочетает разное по крупности плетение сетки, создавая силуэт боди на теле. Крупная сетка эффектно выглядит в виде шнуровки по бокам и на груди, а также демонстрирует стройность ног, визуально вытягивая силуэт. Верх комбинезона с завязками на шее легко снимается и обнажает грудь. Интимный доступ и усиленные носочки добавляют комфорт при использовании, а эластичность бесшовного материала не сковывает движения, и позволяет двигаться так, как хочется. Фантазийный комбинезон HARPER SL.  Фантазийный комбинезон HARPER SL. Модель: candy-843038slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Облегающий бесшовный комбинезон Candy Girl Hera подчеркивает аппетитные женственные формы. Сочетание имитации ажурного боди и крупной сетки визуально делают силуэт стройнее. Визуальные акценты подчеркивают декольте, плечи и спинку, открытые для ласк и прикосновений. Завязки на шее легко развязать одной рукой и освободить грудь. Интимный доступ и усиленные носочки дарят комфорт при использовании. Благодаря эластичности комбинезон облегает фигуру как вторая кожа и не ограничивает движений. Комбинезон с имитацией боди HERA XXL.  Комбинезон с имитацией боди HERA XXL. Модель: candy-843043xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1791,22 +1799,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Комбинезон контактный TASHA SL</t>
+          <t>Комбинезон в крупную сетку JOSIE XXL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-27947-1299</t>
+          <t>id-27958-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1820,12 +1828,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27947/27947_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Tasha с рукавами украшен ажурным рисунком, расставляющим манящие визуальные акценты: на запястьях, груди, спинке, талии и бедрах. Комбинезон облегает всё тело и повторяет соблазнительные изгибы. подчеркивает достоинства и скрывает недостатки, сохраняя эффект обнаженного тела. Открытая область декольте и спины позволяет наслаждаться прикосновениями. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичность материала не сковывает движения, и разрешает двигаться так, как хочется. Комбинезон контактный TASHA SL.  Комбинезон контактный TASHA SL. Модель: candy-843039slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Оригинальный комбинезон из сетки Candy Girl Josie расставит правильные акценты на сочных формах. Геометрический узор зрительно вытягивает силуэт. Глубокие вырезы в декольте и открытая спинка приглашают к прикосновениям. Вставка плотной сетки поддерживает бюст в комфортном положении, кроме того завязками на шее возможно регулировать положение груди. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичный материал комфортно обтягивает фигуру и не мешает разнообразным движениям. Комбинезон в крупную сетку JOSIE XXL.  Комбинезон в крупную сетку JOSIE XXL. Модель: candy-843044xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1903,7 +1911,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1919,12 +1927,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди SABRA SL</t>
+          <t>Эластичное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-27961-1299</t>
+          <t>id-24152-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1948,27 +1956,27 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27961/27961_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_4_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сногсшибательный бесшовный комбинезон Candy Girl Sabra идеально подойдет девушкам, желающим подчеркнуть бедра и ягодицы. Костюм-сетка с рисунком боди визуально удлиняет ноги, благодаря продуманному дизайну. Ажурное плетение делает образ более женственным, а имитация пояса подчеркивает талию. Завязки на шее позволяют освободить бюст одним движением руки. Интимный доступ и усиленные носочки дарят комфорт при использовании, а эластичность материала не сковывает движения и разрешает двигаться так, как хочется. Комбинезон с имитацией боди SABRA SL.  Комбинезон с имитацией боди SABRA SL. Модель: candy-843040slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное платье из сетки Candy Girl Sienna выгодно подчеркивает талию и расставляет соблазняющие акценты. Плотное плетение по бокам сглаживает изгибы фигуры. Эластичное бесшовное платье Candy Girl Sienna.  Эластичное бесшовное платье Candy Girl Sienna. Модель: candy-844005slb. Косметика, препараты. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1979,13 +1987,17 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
+          <t xml:space="preserve">4248 </t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">4248 </t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -2011,7 +2023,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2031,7 +2043,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2047,12 +2059,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Бесшовный комплект из 3 предметов</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-27959-1299</t>
+          <t>id-24154-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2076,17 +2088,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27959/27959_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_4_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплект из сетки Candy Girl Monique состоит из топа, колготок с имитацией чулок и пояса и стринг. Продольные полосы геометрического рисунка зрительно удлиняют и стройнят ноги. Высокая посадка пояса подчеркивает хрупкость талии, а имитация пажей приковывает внимание к аппетитным бедрам. Бесшовная и эластичная сетка повторяет каждый изгиб тела, не сковывает движения, а усиленные носочки чулок дарят комфорт при использовании. Бесшовный комплект из 3 предметов MONIQUE SL.  Бесшовный комплект из 3 предметов MONIQUE SL. Модель: candy-843041slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное боди из сетки Candy Girl Tiara идеально садится по фигуре. Сочетание сеток разной плотности визуально вытягивает силуэт. Широкие бретели обеспечивают комфорт. Эластичное бесшовное боди Candy Girl Tiara.  Эластичное бесшовное боди Candy Girl Tiara. Модель: candy-844006slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2139,7 +2151,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2159,7 +2171,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2175,12 +2187,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Бесшовный комплект из 3 предметов LOTUS</t>
+          <t>Ажурное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-27960-1299</t>
+          <t>id-24155-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2204,17 +2216,17 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27960/27960_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_1_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовный костюм-сетка Candy Girl Lotus состоит из топа, чулок с поясом и стринг, и служит роскошным украшением Вашего тела. Утонченный и элегантный образ помогает создать ажурное плетение на груди и бедрах. Высокая посадка пояса подчеркивает тонкую талию, фантазийные пажи приковывают внимание к ягодицам и бедрам. Усиленные носочки чулок дарят комфорт при использовании. Эластичный материал облегает каждый изгиб женственных форм и не сковывает движения. Бесшовный комплект из 3 предметов LOTUS SL.  Бесшовный комплект из 3 предметов LOTUS SL. Модель: candy-843042slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное платье Candy Girl Vanilla  вариант изящного соблазнения. Интригующие вырезы в зоне декольте и на спине открыты для поцелуев и прикосновений. Ажурное бесшовное платье Candy Girl Vanilla.  Ажурное бесшовное платье Candy Girl Vanilla. Модель: candy-844007slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2267,7 +2279,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>топ, колготки с имитацией чулок и пояса, стринги</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2287,7 +2299,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2303,22 +2315,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди HERA XXL</t>
+          <t>Красное бесшовное платье со стрингами</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-27971-1299</t>
+          <t>id-27969-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2332,12 +2344,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27971/27971_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_6_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Облегающий бесшовный комбинезон Candy Girl Hera подчеркивает аппетитные женственные формы. Сочетание имитации ажурного боди и крупной сетки визуально делают силуэт стройнее. Визуальные акценты подчеркивают декольте, плечи и спинку, открытые для ласк и прикосновений. Завязки на шее легко развязать одной рукой и освободить грудь. Интимный доступ и усиленные носочки дарят комфорт при использовании. Благодаря эластичности комбинезон облегает фигуру как вторая кожа и не ограничивает движений. Комбинезон с имитацией боди HERA XXL.  Комбинезон с имитацией боди HERA XXL. Модель: candy-843043xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное мини-платье Candy Girl Vanilla в комплекте со стрингами - изящный наряд для соблазнения. Эластичная сетка оставляет пространство воображению, облегая каждый изгиб фигуры. Фигурные вырезы в зоне декольте и на спинке открывают доступ для поцелуев и прикосновений. Роковой и интригующий образ для страстного свидания. Красное бесшовное платье со стрингами VANILLA SL.  Красное бесшовное платье со стрингами VANILLA SL. Модель: candy-844007slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: красный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2395,7 +2407,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2415,7 +2427,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2431,22 +2443,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Комбинезон в крупную сетку JOSIE XXL</t>
+          <t>Фиолетовое бесшовное боди DIAMOND SL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-27958-1299</t>
+          <t>id-27963-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2460,12 +2472,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27958/27958_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_3_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный комбинезон из сетки Candy Girl Josie расставит правильные акценты на сочных формах. Геометрический узор зрительно вытягивает силуэт. Глубокие вырезы в декольте и открытая спинка приглашают к прикосновениям. Вставка плотной сетки поддерживает бюст в комфортном положении, кроме того завязками на шее возможно регулировать положение груди. Интимный доступ и усиленные носочки обеспечивают комфорт при использовании. Эластичный материал комфортно обтягивает фигуру и не мешает разнообразным движениям. Комбинезон в крупную сетку JOSIE XXL.  Комбинезон в крупную сетку JOSIE XXL. Модель: candy-843044xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Оригинальный дизайн смелого и сексуального боди Candy Girl Diamond делает образ неотразимым. Невесомое бесшовное боди декорировано ажурным плетением и тонкими полосами на талии, которые кокетливо украшают фигуру, при это оставляют живот, спину и ягодицы открытыми для ласк и поцелуев. Фиолетовое бесшовное боди DIAMOND SL.  Фиолетовое бесшовное боди DIAMOND SL. Модель: candy-844008sl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: фиолетовый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2523,7 +2535,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2543,7 +2555,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2559,12 +2571,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное платье Candy Girl</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-24152-1299</t>
+          <t>id-24158-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2588,12 +2600,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24152/24152_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_4_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное платье из сетки Candy Girl Sienna выгодно подчеркивает талию и расставляет соблазняющие акценты. Плотное плетение по бокам сглаживает изгибы фигуры. Эластичное бесшовное платье Candy Girl Sienna.  Эластичное бесшовное платье Candy Girl Sienna. Модель: candy-844005slb. Косметика, препараты. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Невесомое бесшовное ажурное боди из сетки Candy Girl Diamond кокетливо открывает животик и спинку для прикосновений и поцелуев. Эластичное бесшовное боди Candy Girl Diamond.  Эластичное бесшовное боди Candy Girl Diamond. Модель: candy-844008slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2619,17 +2631,13 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4248 </t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>4248</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">4248 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2655,7 +2663,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2675,7 +2683,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2691,12 +2699,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Ажурное бесшовное платье Candy Girl</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-24154-1299</t>
+          <t>id-24157-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2720,12 +2728,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24154/24154_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_3_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное боди из сетки Candy Girl Tiara идеально садится по фигуре. Сочетание сеток разной плотности визуально вытягивает силуэт. Широкие бретели обеспечивают комфорт. Эластичное бесшовное боди Candy Girl Tiara.  Эластичное бесшовное боди Candy Girl Tiara. Модель: candy-844006slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Плетение бесшовного платья из сетки Candy Girl Kaytee подчеркивает все изгибы тела и заставляет следить за каждым движением аппетитных форм. Ажурное бесшовное платье Candy Girl Kaytee.  Ажурное бесшовное платье Candy Girl Kaytee. Модель: candy-844009slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2783,7 +2791,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2803,7 +2811,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2819,12 +2827,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ажурное бесшовное платье Candy Girl</t>
+          <t>Эластичное бесшовное боди Candy Girl</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-24155-1299</t>
+          <t>id-24159-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2848,12 +2856,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24155/24155_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_3_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное платье Candy Girl Vanilla  вариант изящного соблазнения. Интригующие вырезы в зоне декольте и на спине открыты для поцелуев и прикосновений. Ажурное бесшовное платье Candy Girl Vanilla.  Ажурное бесшовное платье Candy Girl Vanilla. Модель: candy-844007slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурное бесшовное боди из сетки Dixie от Candy Girl идеально садится по фигуре. Вертикальный узор визуально стройнит. Открытая спина провоцирует на поцелуи. Эластичное бесшовное боди Candy Girl Dixie.  Эластичное бесшовное боди Candy Girl Dixie. Модель: candy-844010slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2911,7 +2919,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2947,24 +2955,16 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Красное бесшовное платье со стрингами</t>
+          <t>Бесшовное эластичное платье с имитацией</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-27969-1299</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24700-1299</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>99999</v>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27969/27969_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное мини-платье Candy Girl Vanilla в комплекте со стрингами - изящный наряд для соблазнения. Эластичная сетка оставляет пространство воображению, облегая каждый изгиб фигуры. Фигурные вырезы в зоне декольте и на спинке открывают доступ для поцелуев и прикосновений. Роковой и интригующий образ для страстного свидания. Красное бесшовное платье со стрингами VANILLA SL.  Красное бесшовное платье со стрингами VANILLA SL. Модель: candy-844007slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: красный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное мини-платье из сетки Candy Girl Starr украшено сочетанием различных плетений. Оно подчеркивает талию, зону декольте и бедра. Стринги в комплекте. Бесшовное эластичное платье с имитацией топа и юбки Starr XXL.  Бесшовное эластичное платье с имитацией топа и юбки Starr XXL. Модель: candy-844011xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Фиолетовое бесшовное боди DIAMOND SL</t>
+          <t>Бесшовное эластичное платье с</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-27963-1299</t>
+          <t>id-24564-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -3104,17 +3104,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27963/27963_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_4_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный дизайн смелого и сексуального боди Candy Girl Diamond делает образ неотразимым. Невесомое бесшовное боди декорировано ажурным плетением и тонкими полосами на талии, которые кокетливо украшают фигуру, при это оставляют живот, спину и ягодицы открытыми для ласк и поцелуев. Фиолетовое бесшовное боди DIAMOND SL.  Фиолетовое бесшовное боди DIAMOND SL. Модель: candy-844008sl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: фиолетовый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное платье из сетки Spice от Candy Girl с абстрактным рисунком плетения приковывает внимание к декольте. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Бесшовное эластичное платье с продольными полосками Spice XXL.  Бесшовное эластичное платье с продольными полосками Spice XXL. Модель: candy-844012xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3167,7 +3167,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3203,22 +3203,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Асимметричное эластичное платье с</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-24158-1299</t>
+          <t>id-24561-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -3232,12 +3232,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24158/24158_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_4_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Невесомое бесшовное ажурное боди из сетки Candy Girl Diamond кокетливо открывает животик и спинку для прикосновений и поцелуев. Эластичное бесшовное боди Candy Girl Diamond.  Эластичное бесшовное боди Candy Girl Diamond. Модель: candy-844008slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное ассиметричное бесшовное платье из сетки Candy Girl Nikki с длинным рукавом. Продольный рисунок плетения зрительно вытягивает силуэт. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Асимметричное эластичное платье с продольными полосками Nikki XXL.  Асимметричное эластичное платье с продольными полосками Nikki XXL. Модель: candy-844013xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3295,7 +3295,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3331,22 +3331,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ажурное бесшовное платье Candy Girl</t>
+          <t>Бесшовное эластичное платье с открытыми</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-24157-1299</t>
+          <t>id-24701-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -3360,29 +3360,21 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24157/24157_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_1_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плетение бесшовного платья из сетки Candy Girl Kaytee подчеркивает все изгибы тела и заставляет следить за каждым движением аппетитных форм. Ажурное бесшовное платье Candy Girl Kaytee.  Ажурное бесшовное платье Candy Girl Kaytee. Модель: candy-844009slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное бесшовное платье с рукавами 3.4 из сетки Candy Girl Merimba можно носить, открывая плечи или приоткрывая запястья. Крупное плетение открывает зону декольте, переходя в ажурное плетение на талии и бедрах. Стринги в комплекте. Бесшовное эластичное платье с открытыми плечами Merimba XXL.  Бесшовное эластичное платье с открытыми плечами Merimba XXL. Модель: candy-844014xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>92% нейлон, 8% эластан</t>
@@ -3443,7 +3435,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3459,12 +3451,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Эластичное бесшовное боди Candy Girl</t>
+          <t>Бесшовное платье-сетка со стразами</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-24159-1299</t>
+          <t>id-25685-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3488,12 +3480,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24159/24159_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_3_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное бесшовное боди из сетки Dixie от Candy Girl идеально садится по фигуре. Вертикальный узор визуально стройнит. Открытая спина провоцирует на поцелуи. Эластичное бесшовное боди Candy Girl Dixie.  Эластичное бесшовное боди Candy Girl Dixie. Модель: candy-844010slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo SL.  Бесшовное платье-сетка со стразами Candy Girl Cleo SL. Модель: candy-844015slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3503,17 +3495,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3551,7 +3543,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3587,12 +3579,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с имитацией</t>
+          <t>Бесшовное платье-сетка со стразами</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-24700-1299</t>
+          <t>id-25684-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3608,32 +3600,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24700/24700_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_4_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное мини-платье из сетки Candy Girl Starr украшено сочетанием различных плетений. Оно подчеркивает талию, зону декольте и бедра. Стринги в комплекте. Бесшовное эластичное платье с имитацией топа и юбки Starr XXL.  Бесшовное эластичное платье с имитацией топа и юбки Starr XXL. Модель: candy-844011xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo XXL.  Бесшовное платье-сетка со стразами Candy Girl Cleo XXL. Модель: candy-844015xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3671,7 +3663,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3691,7 +3683,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3707,22 +3699,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с</t>
+          <t>Бесшовное боди на завязочках JUNA SL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-24564-1299</t>
+          <t>id-27970-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3736,17 +3728,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24564/24564_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_3_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное платье из сетки Spice от Candy Girl с абстрактным рисунком плетения приковывает внимание к декольте. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Бесшовное эластичное платье с продольными полосками Spice XXL.  Бесшовное эластичное платье с продольными полосками Spice XXL. Модель: candy-844012xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное эластичное боди Candy Girl Juna визуально вытягивает силуэт, благодаря высоким вырезам и V-образному дизайну плетения. Завязки на шее позволяют освободить бюст одним движением руки. Откровенное боди интригует и заставляет воображение рисовать пикантные сценарии страстного свидания. Бесшовное боди на завязочках JUNA SL.  Бесшовное боди на завязочках JUNA SL. Модель: candy-844021slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3799,7 +3791,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3835,22 +3827,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Асимметричное эластичное платье с</t>
+          <t>Бесшовное платье с открытой спиной</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-24561-1299</t>
+          <t>id-27946-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3864,27 +3856,27 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24561/24561_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_3_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное ассиметричное бесшовное платье из сетки Candy Girl Nikki с длинным рукавом. Продольный рисунок плетения зрительно вытягивает силуэт. Длина до середины колена подчеркивает соблазнительный изгиб лодыжек. Стринги в комплекте. Асимметричное эластичное платье с продольными полосками Nikki XXL.  Асимметричное эластичное платье с продольными полосками Nikki XXL. Модель: candy-844013xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Элегантное утонченное бесшовное платье Candy Girl Fiona из эластичной сетки облегает каждый изгиб фигуры, подчеркивая женственные формы. Оригинальный дизайн сочетает равномерное плетение и крупную сетку. Акцентные вставки, имитирующие шнуровку, зрительно вытягивают фигуру и подчеркивают зону декольте. Открытая спинка и плечи облегчают образ, а завязки на шее позволяют быстро обнажить грудь, ведь накал страсти может стать внезапным и сногсшибательным. Трусики-стринги в комплекте. Бесшовное платье с открытой спиной FIONA SL.  Бесшовное платье с открытой спиной FIONA SL. Модель: candy-844022slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3963,22 +3955,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Бесшовное эластичное платье с открытыми</t>
+          <t>Бесшовное платье с открытой спиной ELLA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-24701-1299</t>
+          <t>id-27962-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1XL</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>52-54</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -3992,12 +3984,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24701/24701_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_3_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное бесшовное платье с рукавами 3.4 из сетки Candy Girl Merimba можно носить, открывая плечи или приоткрывая запястья. Крупное плетение открывает зону декольте, переходя в ажурное плетение на талии и бедрах. Стринги в комплекте. Бесшовное эластичное платье с открытыми плечами Merimba XXL.  Бесшовное эластичное платье с открытыми плечами Merimba XXL. Модель: candy-844014xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Бесшовное платье Candy Girl Ella из плотной сетки подчеркивает самые выгодные ракурсы тела. Эластичный материал идеально облегает фигуру и демонстрирует волнительные изгибы. Кружевные вставки переносят акцент на талию и грудь, которая комфортно поддерживается с помощью широких бретелей. Пикантная особенность - в открытой спинке, украшенной крестообразным плетением, что оставляет максимальное пространство для ласк и прикосновений. Бесшовное платье с открытой спиной ELLA XXL.  Бесшовное платье с открытой спиной ELLA XXL. Модель: candy-844023slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: вишневый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4005,8 +3997,16 @@
           <t>Россия</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Стандартный</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
           <t>92% нейлон, 8% эластан</t>
@@ -4047,7 +4047,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4083,22 +4083,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Бесшовное платье-сетка со стразами</t>
+          <t>Бесшовное мини-платье DARCY XXL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-25685-1299</t>
+          <t>id-27956-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -4112,32 +4112,32 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25685/25685_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_3_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo SL.  Бесшовное платье-сетка со стразами Candy Girl Cleo SL. Модель: candy-844015slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Мини-платье Candy Girl Darcy с рукавами выполнено из эластичной кружевной сетки. Бесшовный ажурный материал облегает фигуру как вторая кожа, подчеркивая аппетитные формы и повторяя изгибы. Геометричный рисунок расставляет правильные акценты на декольте и талии. V-образная вставка плотной сетки зрительно вытягивает силуэт и привлекает внимание к груди. Это платье идеально подойдет для девушек, которые хотят подчеркнуть свою сексуальность. Бесшовное мини-платье DARCY XXL.  Бесшовное мини-платье DARCY XXL. Модель: candy-844024xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -4175,7 +4175,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4211,16 +4211,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Бесшовное платье-сетка со стразами</t>
+          <t>Бесшовное платье на тонких бретелях</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-25684-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>id-27973-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4232,32 +4240,32 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25684/25684_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_3_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье Candy Girl Cleo из эластичной бесшовной сетки равномерно украшено россыпью радужных страз, мерцающих в полумраке. Классическое плетение  всегда беспроигрышный выбор. Бесшовное платье-сетка со стразами Candy Girl Cleo XXL.  Бесшовное платье-сетка со стразами Candy Girl Cleo XXL. Модель: candy-844015xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Тонкое и невесомое платье Candy Girl Camilla оставляет иллюзию орнамента на теле. Бесшовное мини-платье на тонких бретелях сочетает в себе ажурное плетение и крупную сетку, визуально стройнит и вытягивает силуэт. Благодаря эластичности материала, платье облегает фигуру, повторяя волнующие изгибы. Оголенные плечи, декольте и спинка манят к прикосновениям. Бесшовное платье на тонких бретелях CAMILLA  XXL.  Бесшовное платье на тонких бретелях CAMILLA  XXL. Модель: candy-844025xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4295,7 +4303,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4315,7 +4323,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4331,12 +4339,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Бесшовное боди на завязочках JUNA SL</t>
+          <t>Колготки с имитацией чулок и пояса</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-27970-1299</t>
+          <t>id-27955-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4360,12 +4368,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27970/27970_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_4_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное эластичное боди Candy Girl Juna визуально вытягивает силуэт, благодаря высоким вырезам и V-образному дизайну плетения. Завязки на шее позволяют освободить бюст одним движением руки. Откровенное боди интригует и заставляет воображение рисовать пикантные сценарии страстного свидания. Бесшовное боди на завязочках JUNA SL.  Бесшовное боди на завязочках JUNA SL. Модель: candy-844021slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Необходимые элементы женского гардероба для соблазнения - чулки с поясом и стринги - представлены в коллекции Candy Girl моделью Christabel. Изюминкой фасона являются стразы, которые равномерно рассыпаны от бедер до щиколоток. Падающий свет на стразах мерцает радужным сиянием. Пажи из тонких перемычек подчеркивают бедра, добавляя сексуальный настрой, а сетка привлекает внимание к стройности женских ножек. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса CHRISTABEL SL.  Колготки с имитацией чулок и пояса CHRISTABEL SL. Модель: candy-845000slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4423,7 +4431,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>колготки, стринги</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4443,7 +4451,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4459,12 +4467,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Бесшовное платье с открытой спиной</t>
+          <t>Колготки с имитацией чулок и пояса</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-27946-1299</t>
+          <t>id-27957-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4488,12 +4496,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27946/27946_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_3_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантное утонченное бесшовное платье Candy Girl Fiona из эластичной сетки облегает каждый изгиб фигуры, подчеркивая женственные формы. Оригинальный дизайн сочетает равномерное плетение и крупную сетку. Акцентные вставки, имитирующие шнуровку, зрительно вытягивают фигуру и подчеркивают зону декольте. Открытая спинка и плечи облегчают образ, а завязки на шее позволяют быстро обнажить грудь, ведь накал страсти может стать внезапным и сногсшибательным. Трусики-стринги в комплекте. Бесшовное платье с открытой спиной FIONA SL.  Бесшовное платье с открытой спиной FIONA SL. Модель: candy-844022slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Чулки с поясом и стринги Candy Girl Ariel выполнены из сетки равномерного плетения с ажурными вставками. Эластичные чулки подчеркивают стройность, а пажи и пояс с высокой посадкой зрительно удлиняют ноги и акцентируют внимание на ягодицах. Кружевные пояс и резинки чулок превращают классические чулки из сетки в роскошный аксессуар. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса ARIEL SL.  Колготки с имитацией чулок и пояса ARIEL SL. Модель: candy-845001slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4551,7 +4559,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>колготки, стринги</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4571,38 +4579,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Бесшовное платье с открытой спиной ELLA</t>
+          <t>Костюм официанта CANDY BOY ARCHER One</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-27962-1299</t>
+          <t>id-20529-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4616,32 +4624,32 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27962/27962_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное платье Candy Girl Ella из плотной сетки подчеркивает самые выгодные ракурсы тела. Эластичный материал идеально облегает фигуру и демонстрирует волнительные изгибы. Кружевные вставки переносят акцент на талию и грудь, которая комфортно поддерживается с помощью широких бретелей. Пикантная особенность - в открытой спинке, украшенной крестообразным плетением, что оставляет максимальное пространство для ласк и прикосновений. Бесшовное платье с открытой спиной ELLA XXL.  Бесшовное платье с открытой спиной ELLA XXL. Модель: candy-844023slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: вишневый. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный жилет-майка с отложным воротником, продольными полосами и контрастными пуговицами добавит стройности. Трусы-боксеры из эластичной сетки обеспечат идеальный обзор сзади. Галстук-бабочка на застежке липучка и манжеты на кнопках дополнят образ. Все аксессуары легко надеть самостоятельно. Костюм официанта CANDY BOY ARCHER One Size.  Костюм официанта CANDY BOY ARCHER One Size. Модель: candyboy-801012os. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4679,7 +4687,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>майка, трусы, манжеты, галстук-бабочка</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4715,22 +4723,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Бесшовное мини-платье DARCY XXL</t>
+          <t>Платье CANDY GIRL XL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-27956-1299</t>
+          <t>id-20531-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -4744,32 +4752,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27956/27956_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_3_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-платье Candy Girl Darcy с рукавами выполнено из эластичной кружевной сетки. Бесшовный ажурный материал облегает фигуру как вторая кожа, подчеркивая аппетитные формы и повторяя изгибы. Геометричный рисунок расставляет правильные акценты на декольте и талии. V-образная вставка плотной сетки зрительно вытягивает силуэт и привлекает внимание к груди. Это платье идеально подойдет для девушек, которые хотят подчеркнуть свою сексуальность. Бесшовное мини-платье DARCY XXL.  Бесшовное мини-платье DARCY XXL. Модель: candy-844024xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичное платье из ткани с эффектом wetlook, с прозрачными вставками, открытой спинкой. Платье CANDY GIRL XL.  Платье CANDY GIRL XL. Модель: candygirl-840021xl. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>82% нейлон, 18% эластан</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4807,7 +4815,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4827,7 +4835,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4843,22 +4851,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Бесшовное платье на тонких бретелях</t>
+          <t>Эротическое боди CANDY GIRL XL</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-27973-1299</t>
+          <t>id-20535-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4872,32 +4880,32 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27973/27973_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20535/20535_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20535/20535_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20535/20535_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20535/20535_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20535/20535_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Тонкое и невесомое платье Candy Girl Camilla оставляет иллюзию орнамента на теле. Бесшовное мини-платье на тонких бретелях сочетает в себе ажурное плетение и крупную сетку, визуально стройнит и вытягивает силуэт. Благодаря эластичности материала, платье облегает фигуру, повторяя волнующие изгибы. Оголенные плечи, декольте и спинка манят к прикосновениям. Бесшовное платье на тонких бретелях CAMILLA  XXL.  Бесшовное платье на тонких бретелях CAMILLA  XXL. Модель: candy-844025xxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Боди выполнено из эластичной сетки и кружева. Бюст на косточках оформлен эластичными лентами и дополнен вставками кружева. Регулируемые бретели украшены сатиновыми бантиками. Ширина продольных вырезов спереди регулируется сатиновыми лентами. Фигурные вырезы сзади обеспечивают легкий доступ к спине и интимной зоне. Эротическое боди CANDY GIRL XL.  Эротическое боди CANDY GIRL XL. Модель: candygirl-840039xl. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: красный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>92 % полиэстер, 8 % эластан</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4935,7 +4943,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4955,7 +4963,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4971,22 +4979,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок и пояса</t>
+          <t>Кружевное розовое боди с доступом сзади</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-27955-1299</t>
+          <t>id-20283-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -5000,17 +5008,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27955/27955_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_3_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необходимые элементы женского гардероба для соблазнения - чулки с поясом и стринги - представлены в коллекции Candy Girl моделью Christabel. Изюминкой фасона являются стразы, которые равномерно рассыпаны от бедер до щиколоток. Падающий свет на стразах мерцает радужным сиянием. Пажи из тонких перемычек подчеркивают бедра, добавляя сексуальный настрой, а сетка привлекает внимание к стройности женских ножек. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса CHRISTABEL SL.  Колготки с имитацией чулок и пояса CHRISTABEL SL. Модель: candy-845000slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Рельефное кружево с блестящими акцентами подчеркивает гладкость кожи. Глубокое декольте и высокий вырез на ножках зрительно корректирует силуэт. Сзади модель белья обеспечивает обширный интимный доступ: полностью открыта спина и ягодицы. Регулируемые бретели на попе скорректируют посадку боди по высоте. Кружевное розовое боди с доступом сзади CANDY GIRL One Size.  Кружевное розовое боди с доступом сзади CANDY GIRL One Size. Модель: candygirl-840048os. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: розовый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5025,7 +5033,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -5063,7 +5071,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>колготки, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5083,7 +5091,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -5099,22 +5107,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок и пояса</t>
+          <t>Комплект черный CANDY GIRL корсет с</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-27957-1299</t>
+          <t>id-20282-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -5128,17 +5136,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27957/27957_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_3_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом и стринги Candy Girl Ariel выполнены из сетки равномерного плетения с ажурными вставками. Эластичные чулки подчеркивают стройность, а пажи и пояс с высокой посадкой зрительно удлиняют ноги и акцентируют внимание на ягодицах. Кружевные пояс и резинки чулок превращают классические чулки из сетки в роскошный аксессуар. Усиленные носочки дарят комфорт при использовании. Носить чулки можно как со стрингами, так и без. Колготки с имитацией чулок и пояса ARIEL SL.  Колготки с имитацией чулок и пояса ARIEL SL. Модель: candy-845001slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Мягкий корсет из сочетания кружева и эластичной сетки дополнен необычной съемной деталью - пластроном. Кружевной лиф выполнен с тонкими чашками, на косточках, регулируемые бретели и трехрядная застежка сзади обеспечивает идеальную посадку груди. Четыре регулируемых пажа поддерживают чулки и не позволяют корсету собраться в складки. Подходящие прозрачные матовые чулки на плотной резинке без силикона и Т-стринги завершают готовый соблазнительный образ. Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size.  Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size. Модель: candygirl-840049os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Корсеты. Цвет: черный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -5153,7 +5161,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>92 % полиэстер, 8 % эластан</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5191,7 +5199,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>колготки, стринги</t>
+          <t>корсет с пажами для чулок, галстук, стринги, чулки</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5211,28 +5219,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Костюм официанта CANDY BOY ARCHER One</t>
+          <t>Костюм учительницы CANDY GIRL Ginger</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-20529-1299</t>
+          <t>id-20528-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5256,12 +5264,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20529/20529_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20528/20528_4_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный жилет-майка с отложным воротником, продольными полосами и контрастными пуговицами добавит стройности. Трусы-боксеры из эластичной сетки обеспечат идеальный обзор сзади. Галстук-бабочка на застежке липучка и манжеты на кнопках дополнят образ. Все аксессуары легко надеть самостоятельно. Костюм официанта CANDY BOY ARCHER One Size.  Костюм официанта CANDY BOY ARCHER One Size. Модель: candyboy-801012os. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Топ wetlook с контрастной отделкой и вставкой из прозрачной сетки, открывающей ложбинку груди. Юбка wetlook украшена трикотажными полосатыми вставками, подчеркивающее каждое движение. Пажи отстегиваются и позволяют изменить образ. Галстук на застежке липучке, чулки из крупной сетки с эластичной резинкой и уплотненными носочком, очки, перчатки до локтя и указка - в комплекте.Внимание!!! Внешний вид аксессуаров может отличаться от изображенных. Костюм учительницы CANDY GIRL Ginger One Size.  Костюм учительницы CANDY GIRL Ginger One Size. Модель: candygirl-841042os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый, красный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5281,7 +5289,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>97% полиэстер, 3% эластан</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5319,7 +5327,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>майка, трусы, манжеты, галстук-бабочка</t>
+          <t>Топ, юбка с пажами, трусы, перчатки, галстук, чулки, очки, указка</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5339,7 +5347,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -5355,12 +5363,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Платье CANDY GIRL XL</t>
+          <t>Костюм зайки CANDY GIRL CHARITY One</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-20531-1299</t>
+          <t>id-20565-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5384,12 +5392,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20531/20531_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_2_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичное платье из ткани с эффектом wetlook, с прозрачными вставками, открытой спинкой. Платье CANDY GIRL XL.  Платье CANDY GIRL XL. Модель: candygirl-840021xl. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Платье зайки из эластичного трикотажа с кружевными вставками, фалдами и имитацией шнуровки приятно удивит любого. Непрозрачный черный трикотаж зрительно добавит фигуре стройности. Рельефное кружево и оборки добавят объема груди и бедрам. Пажи с фривольными бантиками и меховой хвостик отстегиваются и дают возможность отказаться от чулок и игрового образа. Ушки-ободок легко держат нужную форму. Кружевные детали: чокер с крупным стразом-сердечком и манжеты  подчеркивают романтичное настроение. Чулки из крупной сетки с эластичной резинкой и уплотненными носочком, трикотажные G-стринги сделают образ законченным. Костюм зайки CANDY GIRL CHARITY One Size (6 предметов).  Костюм зайки CANDY GIRL CHARITY One Size (6 предметов). Модель: candygirl-841044os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5409,7 +5417,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% эластан</t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5447,7 +5455,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье с пажами, трусы, головной убор, повязка на шею, чулки, манжеты</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5467,13 +5475,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5483,17 +5491,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Кружевное розовое боди с доступом сзади</t>
+          <t>Черная мини-сорочка с розовым бантиком</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-20283-1299</t>
+          <t>id-17633-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5512,32 +5520,32 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20283/20283_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17633/17633_1_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Рельефное кружево с блестящими акцентами подчеркивает гладкость кожи. Глубокое декольте и высокий вырез на ножках зрительно корректирует силуэт. Сзади модель белья обеспечивает обширный интимный доступ: полностью открыта спина и ягодицы. Регулируемые бретели на попе скорректируют посадку боди по высоте. Кружевное розовое боди с доступом сзади CANDY GIRL One Size.  Кружевное розовое боди с доступом сзади CANDY GIRL One Size. Модель: candygirl-840048os. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: розовый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa SM.  Черная мини-сорочка с розовым бантиком Marquisa SM. Модель: caprice-1625smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5575,7 +5583,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5595,13 +5603,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5611,22 +5619,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Комплект черный CANDY GIRL корсет с</t>
+          <t>Черная мини-сорочка с розовым бантиком</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-20282-1299</t>
+          <t>id-17634-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -5640,32 +5648,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20282/20282_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17634/17634_1_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий корсет из сочетания кружева и эластичной сетки дополнен необычной съемной деталью - пластроном. Кружевной лиф выполнен с тонкими чашками, на косточках, регулируемые бретели и трехрядная застежка сзади обеспечивает идеальную посадку груди. Четыре регулируемых пажа поддерживают чулки и не позволяют корсету собраться в складки. Подходящие прозрачные матовые чулки на плотной резинке без силикона и Т-стринги завершают готовый соблазнительный образ. Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size.  Комплект черный CANDY GIRL (корсет с пажами для чулок, галстук, стринги, чулки), One Size. Модель: candygirl-840049os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Корсеты. Цвет: черный. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa LXL.  Черная мини-сорочка с розовым бантиком Marquisa LXL. Модель: caprice-1629lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5703,7 +5711,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>корсет с пажами для чулок, галстук, стринги, чулки</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5723,13 +5731,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>CAPRICE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5739,22 +5747,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Костюм зайки CANDY GIRL CHARITY One</t>
+          <t>Чёрный прозрачный комбинезон с</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-20565-1299</t>
+          <t>id-16774-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>42-48</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -5768,17 +5776,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20565/20565_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16774/16774_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье зайки из эластичного трикотажа с кружевными вставками, фалдами и имитацией шнуровки приятно удивит любого. Непрозрачный черный трикотаж зрительно добавит фигуре стройности. Рельефное кружево и оборки добавят объема груди и бедрам. Пажи с фривольными бантиками и меховой хвостик отстегиваются и дают возможность отказаться от чулок и игрового образа. Ушки-ободок легко держат нужную форму. Кружевные детали: чокер с крупным стразом-сердечком и манжеты  подчеркивают романтичное настроение. Чулки из крупной сетки с эластичной резинкой и уплотненными носочком, трикотажные G-стринги сделают образ законченным. Костюм зайки CANDY GIRL CHARITY One Size (6 предметов).  Костюм зайки CANDY GIRL CHARITY One Size (6 предметов). Модель: candygirl-841044os. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL.  Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL. Модель: caprice-6908slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5793,7 +5801,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5831,7 +5839,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>платье с пажами, трусы, головной убор, повязка на шею, чулки, манжеты</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5851,7 +5859,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -5867,22 +5875,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Черная мини-сорочка с розовым бантиком</t>
+          <t>Чёрный сетчатый комбинезон с атласным</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-17633-1299</t>
+          <t>id-16465-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -5896,12 +5904,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17633/17633_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16465/16465_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa SM.  Черная мини-сорочка с розовым бантиком Marquisa SM. Модель: caprice-1625smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL.  Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL. Модель: caprice-6914slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5959,7 +5967,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5979,7 +5987,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -5995,22 +6003,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Черная мини-сорочка с розовым бантиком</t>
+          <t>Чёрный сетчатый комбинезон с бантиками</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-17634-1299</t>
+          <t>id-16973-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -6024,12 +6032,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17634/17634_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_2_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная мини-сорочка с розовым бантиком Marquisa LXL.  Черная мини-сорочка с розовым бантиком Marquisa LXL. Модель: caprice-1629lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Чёрный сетчатый комбинезон с бантиками Bodystocring SL.  Чёрный сетчатый комбинезон с бантиками Bodystocring SL. Модель: caprice-6916slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6087,7 +6095,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6107,7 +6115,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -6123,22 +6131,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Чёрный прозрачный комбинезон с</t>
+          <t>Белая сорочка Albina с кружевным лифом</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-16774-1299</t>
+          <t>id-26903-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>42-48</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -6152,12 +6160,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16774/16774_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26903/26903_1_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL.  Чёрный прозрачный комбинезон с фантазийным узором Bobystocring SL. Модель: caprice-6908slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Соблазнительная короткая сорочка с завязочкой через шею, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из эластичной сетки с рюшами. Под грудью вставка из атласной ленты. Белая сорочка Albina с кружевным лифом LXL.  Белая сорочка Albina с кружевным лифом LXL. Модель: caprice-albina-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6215,7 +6223,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6235,7 +6243,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -6251,22 +6259,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Чёрный сетчатый комбинезон с атласным</t>
+          <t>Игровой комплект кондуктор поезда</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-16465-1299</t>
+          <t>id-26877-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -6280,12 +6288,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16465/16465_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26877/26877_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL.  Чёрный сетчатый комбинезон с атласным бантиком на груди Bodystocring SL. Модель: caprice-6914slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor LXL.  Игровой комплект кондуктор поезда Conductor LXL. Модель: caprice-cond-lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6343,7 +6351,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6363,7 +6371,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6379,22 +6387,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Чёрный сетчатый комбинезон с бантиками</t>
+          <t>Игровой комплект кондуктор поезда</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-16973-1299</t>
+          <t>id-26893-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -6408,12 +6416,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16973/16973_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26893/26893_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Чёрный сетчатый комбинезон с бантиками Bodystocring SL.  Чёрный сетчатый комбинезон с бантиками Bodystocring SL. Модель: caprice-6916slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor SM.  Игровой комплект кондуктор поезда Conductor SM. Модель: caprice-cond-sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6471,7 +6479,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6507,12 +6515,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Белая сорочка Albina с кружевным лифом</t>
+          <t>Белая сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-26903-1299</t>
+          <t>id-26874-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6522,7 +6530,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -6536,12 +6544,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26903/26903_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26874/26874_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительная короткая сорочка с завязочкой через шею, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из эластичной сетки с рюшами. Под грудью вставка из атласной ленты. Белая сорочка Albina с кружевным лифом LXL.  Белая сорочка Albina с кружевным лифом LXL. Модель: caprice-albina-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa LXL.  Белая сорочка с кружевным лифом и бантом Eloisa LXL. Модель: caprice-eloisa-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6619,7 +6627,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -6635,22 +6643,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Игровой комплект кондуктор поезда</t>
+          <t>Черная сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-26877-1299</t>
+          <t>id-26876-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -6664,12 +6672,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26877/26877_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26876/26876_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor LXL.  Игровой комплект кондуктор поезда Conductor LXL. Модель: caprice-cond-lxl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Черная сорочка с кружевным лифом и бантом Eloisa SM.  Черная сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6727,7 +6735,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6747,7 +6755,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6763,12 +6771,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Игровой комплект кондуктор поезда</t>
+          <t>Белая сорочка с кружевным лифом и</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-26893-1299</t>
+          <t>id-26875-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6792,12 +6800,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26893/26893_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26875/26875_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интригующий игровой комплект-костюм. Широкие застежки приоткрывают ваше тело ровно настолько, чтобы разжечь фантазию. В комплект входят трусики-стринг, воротничок с галстуком и пилотка. Игровой комплект кондуктор поезда Conductor SM.  Игровой комплект кондуктор поезда Conductor SM. Модель: caprice-cond-sm. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: серый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa SM.  Белая сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6855,7 +6863,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>мини-платье, стринги,  воротничок с галстуком, пилотка</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -6875,7 +6883,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6891,22 +6899,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Белая сорочка с кружевным лифом и</t>
+          <t>Красный кружевной пеньюар с бантиком</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-26874-1299</t>
+          <t>id-26887-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -6920,12 +6928,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26874/26874_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26887/26887_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa LXL.  Белая сорочка с кружевным лифом и бантом Eloisa LXL. Модель: caprice-eloisa-lxlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Красный кружевной пеньюар с бантиком Eva SM.  Красный кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6983,7 +6991,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -7003,7 +7011,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -7019,12 +7027,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Черная сорочка с кружевным лифом и</t>
+          <t>Белый кружевной пеньюар с бантиком Eva</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-26876-1299</t>
+          <t>id-26883-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7048,12 +7056,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26876/26876_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26883/26883_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Черная сорочка с кружевным лифом и бантом Eloisa SM.  Черная сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Белый кружевной пеньюар с бантиком Eva SM.  Белый кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -7111,7 +7119,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7147,22 +7155,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Белая сорочка с кружевным лифом и</t>
+          <t>Плиссированная черная сорочка Femme</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-26875-1299</t>
+          <t>id-26901-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -7176,12 +7184,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26875/26875_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26901/26901_1_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная сорочка с завышенной талией, боковые детали и лиф отделаны эластичным кружевом. Широкое декольте выгодно подчеркивает линию груди, а крупный атласный бант акцентирует внимание на ней. Широкие бретели ложатся на предплечья, открывая линию шею и плеч. В комплекте трусики-стринг. Белая сорочка с кружевным лифом и бантом Eloisa SM.  Белая сорочка с кружевным лифом и бантом Eloisa SM. Модель: caprice-eloisa-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Соблазнительная короткая сорочка на регулируемых бретелях, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из шифона с эффектом плиссе. Под грудью вставка из атласной ленты. Плиссированная черная сорочка Femme Fatale с кружевным лифом SM.  Плиссированная черная сорочка Femme Fatale с кружевным лифом SM. Модель: caprice-fatale-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7259,7 +7267,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -7275,22 +7283,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Красный кружевной пеньюар с бантиком</t>
+          <t>Эротичный комплект с открытой спинкой</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-26887-1299</t>
+          <t>id-26882-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -7304,12 +7312,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26887/26887_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26882/26882_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Красный кружевной пеньюар с бантиком Eva SM.  Красный кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia LXL.  Эротичный комплект с открытой спинкой Lucia LXL. Модель: caprice-lucia-lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7387,7 +7395,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -7403,22 +7411,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Белый кружевной пеньюар с бантиком Eva</t>
+          <t>Эротичный комплект с открытой спинкой</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-26883-1299</t>
+          <t>id-26881-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -7432,12 +7440,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26883/26883_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26881/26881_1_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственный и смелый комплект из шикарного кружева. Великолепная сорочка скроена таким образом, что оставляет открытым ваш животик и плечи. По краям сорочка декорирована обворожительными рюшами. Область декольте украшает красивый атласный бант. В комплект также входят трусики стринг из такого же изящного кружева. Белый кружевной пеньюар с бантиком Eva SM.  Белый кружевной пеньюар с бантиком Eva SM. Модель: caprice-eva-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia SM.  Эротичный комплект с открытой спинкой Lucia SM. Модель: caprice-lucia-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7515,7 +7523,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7531,22 +7539,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Плиссированная черная сорочка Femme</t>
+          <t>Новогодний кружевной комплет Noelle LXL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-26901-1299</t>
+          <t>id-26890-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7560,12 +7568,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26901/26901_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26890/26890_1_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительная короткая сорочка на регулируемых бретелях, чашки лифа выполнены из кружева, без косточек. Низ сорочки сделан из шифона с эффектом плиссе. Под грудью вставка из атласной ленты. Плиссированная черная сорочка Femme Fatale с кружевным лифом SM.  Плиссированная черная сорочка Femme Fatale с кружевным лифом SM. Модель: caprice-fatale-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle LXL.  Новогодний кружевной комплет Noelle LXL. Модель: caprice-noelle-lxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7623,7 +7631,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7643,7 +7651,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7659,22 +7667,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Эротичный комплект с открытой спинкой</t>
+          <t>Новогодний кружевной комплет Noelle SM</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-26882-1299</t>
+          <t>id-26891-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7688,12 +7696,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26882/26882_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26891/26891_1_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia LXL.  Эротичный комплект с открытой спинкой Lucia LXL. Модель: caprice-lucia-lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle SM.  Новогодний кружевной комплет Noelle SM. Модель: caprice-noelle-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7751,7 +7759,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7787,22 +7795,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Эротичный комплект с открытой спинкой</t>
+          <t>Игровой комплект медсестры Modest Nurse</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-26881-1299</t>
+          <t>id-26880-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7816,12 +7824,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26881/26881_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26880/26880_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальная прозрачная сорочка с длинным рукавом. Выполнена из прозрачной черной ткани, украшена кружевом и украшением из бусин. Спереди и сзади глубокий вырез. В комплекте трусики-стринги. Эротичный комплект с открытой спинкой Lucia SM.  Эротичный комплект с открытой спинкой Lucia SM. Модель: caprice-lucia-smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Раскрепощенная медсестра - мечта любого. В этом вам помогут короткая форменная эластичная сорочка с широким вырезом на груди и эротичной молнией, нарукавник и головной убор. Игровой комплект медсестры Modest Nurse SM.  Игровой комплект медсестры Modest Nurse SM. Модель: caprice-nurse-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7879,7 +7887,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>мини-платье, нарукавник, головной убор</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7915,12 +7923,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Новогодний кружевной комплет Noelle LXL</t>
+          <t>Игровой новогодний комплект LADY SANTA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-26890-1299</t>
+          <t>id-26888-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7944,12 +7952,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26890/26890_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26888/26888_1_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle LXL.  Новогодний кружевной комплет Noelle LXL. Модель: caprice-noelle-lxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA LXL.  Игровой новогодний комплект LADY SANTA LXL. Модель: caprice-santa-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -8007,7 +8015,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
+          <t>мини-платье, стринги, головной убор</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -8043,12 +8051,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Новогодний кружевной комплет Noelle SM</t>
+          <t>Игровой новогодний комплект LADY SANTA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-26891-1299</t>
+          <t>id-26889-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -8072,12 +8080,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26891/26891_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26889/26889_1_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм из мягкой кружевной ткани, края горловины сорочки обшиты белоснежным пухом, на тонких бретелях. В комплекте трусики-стринги из эластичной ткани и кружевные митенки. Новогодний кружевной комплет Noelle SM.  Новогодний кружевной комплет Noelle SM. Модель: caprice-noelle-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA SM.  Игровой новогодний комплект LADY SANTA SM. Модель: caprice-santa-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -8135,7 +8143,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>мини-платье, митенки (перчатки без пальцев), стринги</t>
+          <t>мини-платье, стринги, головной убор</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8155,7 +8163,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -8171,22 +8179,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Игровой комплект медсестры Modest Nurse</t>
+          <t>Новогодний игровой комплект Sexy Santa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-26880-1299</t>
+          <t>id-26892-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -8200,12 +8208,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26880/26880_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_2_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раскрепощенная медсестра - мечта любого. В этом вам помогут короткая форменная эластичная сорочка с широким вырезом на груди и эротичной молнией, нарукавник и головной убор. Игровой комплект медсестры Modest Nurse SM.  Игровой комплект медсестры Modest Nurse SM. Модель: caprice-nurse-smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Эротичный пеньюар из мягкой кружевной ткани с оторочкой белоснежного пуха и завязочками на груди, животик открыт. В комплекте трусики-стринги из эластичной ткани и кружевной колпак. Новогодний игровой комплект Sexy Santa LXL.  Новогодний игровой комплект Sexy Santa LXL. Модель: caprice-sexy-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8263,7 +8271,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>мини-платье, нарукавник, головной убор</t>
+          <t>мини-платье, стринги, колпак на голову</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8283,7 +8291,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8299,12 +8307,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Игровой новогодний комплект LADY SANTA</t>
+          <t>Бирюзовый комплект Valery LXL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-26888-1299</t>
+          <t>id-28268-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8314,7 +8322,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -8328,12 +8336,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26888/26888_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28268/28268_1_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA LXL.  Игровой новогодний комплект LADY SANTA LXL. Модель: caprice-santa-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Романтичный комплект, состоящий из полупрозрачной эластичной сорочки с кружевным бюстом и трусиков. По низу сорочки оборка. Бирюзовый комплект Valery LXL.  Бирюзовый комплект Valery LXL. Модель: caprice-valery-lxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: бирюзовый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8391,7 +8399,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, головной убор</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8411,7 +8419,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8427,12 +8435,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Игровой новогодний комплект LADY SANTA</t>
+          <t>Комплект цельный (платье+чулки) LULU</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-26889-1299</t>
+          <t>id-19671-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8456,12 +8464,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26889/26889_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19671/19671_1_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительный новогодний комплект ЛЕДИ САНТА состоит из трех предметов - кружевная сорочка облегающего кроя, по центру застегивается на маленькие пуговки, декорирована белой пуховой оторочкой. В комплекте трусики-стринги и шапка-колпак из атласной ткани с помпоном. Шапочка полноразмерная, НЕ как на фото. Митенки в комплект не входят. Игровой новогодний комплект LADY SANTA SM.  Игровой новогодний комплект LADY SANTA SM. Модель: caprice-santa-smr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Комплект цельный (платье+чулки) LULU.  Комплект цельный (платье+чулки) LULU. Модель: caprise-2577slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8519,7 +8527,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, головной убор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8539,7 +8547,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8555,22 +8563,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Новогодний игровой комплект Sexy Santa</t>
+          <t>Колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-26892-1299</t>
+          <t>id-19680-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -8584,12 +8592,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26892/26892_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_2_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичный пеньюар из мягкой кружевной ткани с оторочкой белоснежного пуха и завязочками на груди, животик открыт. В комплекте трусики-стринги из эластичной ткани и кружевной колпак. Новогодний игровой комплект Sexy Santa LXL.  Новогодний игровой комплект Sexy Santa LXL. Модель: caprice-sexy-lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Новогодние костюмы. Цвет: красный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c701slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8647,7 +8655,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, колпак на голову</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8667,7 +8675,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8683,22 +8691,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Бирюзовый комплект Valery LXL</t>
+          <t>Колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-28268-1299</t>
+          <t>id-19666-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -8712,12 +8720,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28268/28268_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_2_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Романтичный комплект, состоящий из полупрозрачной эластичной сорочки с кружевным бюстом и трусиков. По низу сорочки оборка. Бирюзовый комплект Valery LXL.  Бирюзовый комплект Valery LXL. Модель: caprice-valery-lxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: бирюзовый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c703slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8775,7 +8783,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8795,7 +8803,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8811,12 +8819,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Комплект цельный (платье+чулки) LULU</t>
+          <t>Боди с узором Caprise</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-19671-1299</t>
+          <t>id-19668-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8840,12 +8848,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19671/19671_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19668/19668_1_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комплект цельный (платье+чулки) LULU.  Комплект цельный (платье+чулки) LULU. Модель: caprise-2577slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">.Боди с узором Caprise.  Боди с узором Caprise. Модель: caprise-c800slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8923,13 +8931,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -8939,12 +8947,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок</t>
+          <t>Кремовый корсаж Blanchet corset LXL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-19680-1299</t>
+          <t>id-13937-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8968,12 +8976,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19680/19680_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_2_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c701slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Эротический корсет с подвязками для чулок молочного цвета Blanchet и стринги. Корсет выполнен из мягкой тонкой эластичной атласной ткани с кружевными вставками. По низу изделия оборочка в виде юбочки. Лиф корсета мягкий, на косточках. Бретели и подвязки регулируются. Кремовый корсаж Blanchet corset LXL.  Кремовый корсаж Blanchet corset LXL. Модель: casmir-03217lxlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: молочный. Материал: 50% полиэстер, 42% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8993,7 +9001,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>50% полиэстер, 42% полиамид, 8% эластан</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -9031,7 +9039,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>корсаж, стринги</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -9051,13 +9059,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -9067,22 +9075,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Колготки с имитацией чулок</t>
+          <t>Прозрачная сорочка с кружевом Nicolette</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-19666-1299</t>
+          <t>id-16200-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -9096,12 +9104,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19666/19666_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Колготки с имитацией чулок.  Колготки с имитацией чулок. Модель: caprise-c703slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Свободная черная комбинация из прозрачной эластичной ткани. На груди отделка из черного испанского эластичного кружева. Подол комбинации декорирован узкой кружевной полоской. Регулируемые бретели. Прозрачная сорочка с кружевом Nicolette Chemise LXL.  Прозрачная сорочка с кружевом Nicolette Chemise LXL. Модель: casmir-03219lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 73% полиэстер, 18% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -9121,7 +9129,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>73% полиэстер, 18% полиамид, 9% эластан</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9159,7 +9167,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9179,13 +9187,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CAPRICE</t>
+          <t>CASMIR</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9195,12 +9203,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Боди с узором Caprise</t>
+          <t>Ассиметричный комбинезон с цветочным</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-19668-1299</t>
+          <t>id-22074-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -9224,12 +9232,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19668/19668_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_2_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Боди с узором Caprise.  Боди с узором Caprise. Модель: caprise-c800slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CAPRICE. </t>
+          <t xml:space="preserve">Эта модель белья создана для романтичных и творческих натур. Соблазнительное переплетение нитей сеточки с цветами роз, обнаженное плечо. . Этот комбинезон словно дымка обволакивает Ваше тело, и с первого взгляда даёт понять партнёру, что Вы - особенная. Ассиметричный комбинезон с цветочным плетением SM.  Ассиметричный комбинезон с цветочным плетением SM. Модель: casmir-h1057smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9249,7 +9257,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9307,7 +9315,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9323,12 +9331,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Кремовый корсаж Blanchet corset LXL</t>
+          <t>Сексапильный топ с чулками и кружевной</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-13937-1299</t>
+          <t>id-22072-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -9352,12 +9360,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13937/13937_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_2_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротический корсет с подвязками для чулок молочного цвета Blanchet и стринги. Корсет выполнен из мягкой тонкой эластичной атласной ткани с кружевными вставками. По низу изделия оборочка в виде юбочки. Лиф корсета мягкий, на косточках. Бретели и подвязки регулируются. Кремовый корсаж Blanchet corset LXL.  Кремовый корсаж Blanchet corset LXL. Модель: casmir-03217lxlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Свадебный образ. Цвет: молочный. Материал: 50% полиэстер, 42% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Комбинезон выделяется необычным сочетанием средней сетки и геометрических орнаментов. Топ с экстремальным декольте сделает Вашу грудь ещё желаннее. В наборе ажурная маска для создания завораживающего образа незнакомки. Сексапильный топ с чулками и кружевной маской SM.  Сексапильный топ с чулками и кружевной маской SM. Модель: casmir-h1063smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9377,7 +9385,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>50% полиэстер, 42% полиамид, 8% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9415,7 +9423,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>корсаж, стринги</t>
+          <t>комбинезон, маска</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9435,7 +9443,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9451,22 +9459,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Прозрачная сорочка с кружевом Nicolette</t>
+          <t>Чулки под пояс в мелкую сеточку Casmir</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-16200-1299</t>
+          <t>id-27915-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -9480,12 +9488,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16200/16200_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Свободная черная комбинация из прозрачной эластичной ткани. На груди отделка из черного испанского эластичного кружева. Подол комбинации декорирован узкой кружевной полоской. Регулируемые бретели. Прозрачная сорочка с кружевом Nicolette Chemise LXL.  Прозрачная сорочка с кружевом Nicolette Chemise LXL. Модель: casmir-03219lxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 73% полиэстер, 18% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в мелкую сеточку сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Чулки под пояс в мелкую сеточку Casmir SL.  Чулки под пояс в мелкую сеточку Casmir SL. Модель: casmir-h2049slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9505,7 +9513,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>73% полиэстер, 18% полиамид, 9% эластан</t>
+          <t>85% полиамид, 15% эластан</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9543,7 +9551,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>чулки</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9563,7 +9571,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9579,12 +9587,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ассиметричный комбинезон с цветочным</t>
+          <t>Колготки в мелкую сеточку с имитацией</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-22074-1299</t>
+          <t>id-27917-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9608,12 +9616,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22074/22074_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_2_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта модель белья создана для романтичных и творческих натур. Соблазнительное переплетение нитей сеточки с цветами роз, обнаженное плечо. . Этот комбинезон словно дымка обволакивает Ваше тело, и с первого взгляда даёт понять партнёру, что Вы - особенная. Ассиметричный комбинезон с цветочным плетением SM.  Ассиметричный комбинезон с цветочным плетением SM. Модель: casmir-h1057smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки в сетку с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL.  Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL. Модель: casmir-h2107slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9633,7 +9641,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>93.5% полиамид, 6.5% эластан</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9671,7 +9679,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9691,7 +9699,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -9707,12 +9715,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Сексапильный топ с чулками и кружевной</t>
+          <t>Черные чулки под пояс в крупную сетку</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-22072-1299</t>
+          <t>id-27919-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -9736,12 +9744,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22072/22072_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27919/27919_1_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комбинезон выделяется необычным сочетанием средней сетки и геометрических орнаментов. Топ с экстремальным декольте сделает Вашу грудь ещё желаннее. В наборе ажурная маска для создания завораживающего образа незнакомки. Сексапильный топ с чулками и кружевной маской SM.  Сексапильный топ с чулками и кружевной маской SM. Модель: casmir-h1063smb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в крупную сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Черные чулки под пояс в крупную сетку SL.  Черные чулки под пояс в крупную сетку SL. Модель: casmir-h2108slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9799,7 +9807,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>комбинезон, маска</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9819,7 +9827,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9835,12 +9843,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Чулки под пояс в мелкую сеточку Casmir</t>
+          <t>Шелковистые контактные колготки Casmir</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-27915-1299</t>
+          <t>id-28133-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -9864,12 +9872,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27915/27915_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28133/28133_1_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в мелкую сеточку сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Чулки под пояс в мелкую сеточку Casmir SL.  Чулки под пояс в мелкую сеточку Casmir SL. Модель: casmir-h2049slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексапильные гладкие колготки с интимным доступом. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах, они прекрасно имитируют возбуждающие чулочки. Приятны на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Шелковистые контактные колготки Casmir SL.  Шелковистые контактные колготки Casmir SL. Модель: casmir-h2112slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9889,7 +9897,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>85% полиамид, 15% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9927,7 +9935,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9963,12 +9971,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Колготки в мелкую сеточку с имитацией</t>
+          <t>Колготки с доступом в мелкую сетку и</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-27917-1299</t>
+          <t>id-27914-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -9992,12 +10000,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27917/27917_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_2_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные и модные чулки в сетку с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL.  Колготки в мелкую сеточку с имитацией чулок и пояса Casmir SL. Модель: casmir-h2107slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексапильные колготки с интимным доступом. Мелкая сетка и стразы делают их особо привлекательными. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах. Разожгут даже потухший огонь страсти! Приятные на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Колготки с доступом в мелкую сетку и стразами SL.  Колготки с доступом в мелкую сетку и стразами SL. Модель: casmir-h2122slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -10017,7 +10025,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>93.5% полиамид, 6.5% эластан</t>
+          <t>85% полиамид, 15% эластан</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -10075,7 +10083,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -10091,12 +10099,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Черные чулки под пояс в крупную сетку</t>
+          <t>Колготки лайкровые у с имитацией чулок</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-27919-1299</t>
+          <t>id-27918-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -10120,12 +10128,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27919/27919_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные и модные чулки под пояс (без силикона) в крупную сетку. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся и не рвутся. Очень приятны к телу и на ощупь. Черные чулки под пояс в крупную сетку SL.  Черные чулки под пояс в крупную сетку SL. Модель: casmir-h2108slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексуальные и модные чулки с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся. Очень приятны к телу и на ощупь. Колготки лайкровые у с имитацией чулок и пояса Casmir SL.  Колготки лайкровые у с имитацией чулок и пояса Casmir SL. Модель: casmir-h2124slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10145,7 +10153,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>93.5% полиамид, 6.5% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -10183,7 +10191,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10203,13 +10211,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CASMIR</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10219,24 +10227,16 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Шелковистые контактные колготки Casmir</t>
+          <t>Гель для орального секса c ягодным</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-28133-1299</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23846-1299</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>99999</v>
@@ -10248,44 +10248,44 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28133/28133_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_2_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексапильные гладкие колготки с интимным доступом. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах, они прекрасно имитируют возбуждающие чулочки. Приятны на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Шелковистые контактные колготки Casmir SL.  Шелковистые контактные колготки Casmir SL. Модель: casmir-h2112slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Сексуальный ягодный взрыв! Сделайте ваш оральный секс еще интереснее и приятнее. Нежная текстура отлично скользит и оказывает приятное действие, а благодаря приятному ягодному вкусу, не позволяет оторваться от столь приятного процесса. Отличный вариант для игры в позе 69 - с этим гелем вы проведете много времени в спальне!.Гель для орального секса c ягодным ароматом CG (60 мл).  Гель для орального секса c ягодным ароматом CG (60 мл). Модель: cg-2202-02. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>90% нейлон, 10% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -10331,13 +10331,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CASMIR</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10347,24 +10347,16 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Колготки с доступом в мелкую сетку и</t>
+          <t>Стимулирующий крем для клитора с</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-27914-1299</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25848-1299</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>99999</v>
@@ -10376,44 +10368,44 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27914/27914_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_1_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексапильные колготки с интимным доступом. Мелкая сетка и стразы делают их особо привлекательными. Элегантные и соблазнительные, с откровенными вырезами на бёдрах и ягодицах. Разожгут даже потухший огонь страсти! Приятные на ощупь, хорошо тянутся и не линяют при стирке. Из высококачественного современного материала. Колготки с доступом в мелкую сетку и стразами SL.  Колготки с доступом в мелкую сетку и стразами SL. Модель: casmir-h2122slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 85% полиамид, 15% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Охлаждающий, возбуждающий и нежный крем, который разнообразит вашу сексуальную игру - вдвоем или наедине с собой. Повышает чувствительность и интенсивность оргазма. Идеально подходит для прелюдии. Прохладный, эффективный и волнующий стимулятор для нее приятно покалывает при применении. Увеличивает приток крови, так что вы сможете наслаждаться более сладкими и глубокими оргазмами. Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл).  Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл). Модель: cg-3002-01. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>85% полиамид, 15% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -10439,7 +10431,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10459,40 +10451,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CASMIR</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Колготки лайкровые у с имитацией чулок</t>
+          <t>Расслабляющий анальный крем CG (20 мл)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-27918-1299</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23842-1299</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>99999</v>
@@ -10504,44 +10488,44 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27918/27918_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_1_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальные и модные чулки с поясом. Это идеальная возможность украсить свою фигуру. Благодаря эластичности и полупрозрачности вы с легкостью создадите эффект одетого и одновременно обнаженного и сексуально возбуждающего тела. Прекрасно тянутся. Очень приятны к телу и на ощупь. Колготки лайкровые у с имитацией чулок и пояса Casmir SL.  Колготки лайкровые у с имитацией чулок и пояса Casmir SL. Модель: casmir-h2124slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93.5% полиамид, 6.5% эластан. Батареек нет в комплекте. Бренд: CASMIR. </t>
+          <t xml:space="preserve">Этот нежный крем снижает чувствительность заднего прохода, чтобы вы смогли мягко и легко пройти путь к приятной анальной игре. Идеально подходит для усиления ощущений. Нанесите небольшое количество геля непосредственно на кончик пальца и аккуратно нанесите на анус за 10-15 минут до проникновения. Этот продукт не предназначен для маскировки боли! Если вы испытываете какой-либо дискомфорт, остановитесь и прислушайтесь к своему телу. Может использоваться с вибрирующими игрушками. Расслабляющий анальный крем CG (20 мл).  Расслабляющий анальный крем CG (20 мл). Модель: cg-3103-00. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>93.5% полиамид, 6.5% эластан</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr"/>
+          <t>20 мл</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 мл</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -10567,7 +10551,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10598,17 +10582,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Гель для орального секса c ягодным</t>
+          <t>Водно-силиконовый лубрикант CG Woo Hoo</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-23846-1299</t>
+          <t>id-24209-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10624,12 +10608,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23846/23846_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24209/24209_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный ягодный взрыв! Сделайте ваш оральный секс еще интереснее и приятнее. Нежная текстура отлично скользит и оказывает приятное действие, а благодаря приятному ягодному вкусу, не позволяет оторваться от столь приятного процесса. Отличный вариант для игры в позе 69 - с этим гелем вы проведете много времени в спальне!.Гель для орального секса c ягодным ароматом CG (60 мл).  Гель для орального секса c ягодным ароматом CG (60 мл). Модель: cg-2202-02. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
+          <t xml:space="preserve">Действительно универсальный лубрикант-гибрид. Гладкий и шелковистый благодаря симбиозу силикона и воды, продлевает удовольствие от близости без суеты и частого нанесения продукта. Водная основа дает нежнейшее скольжение и с заботой относится к слизистым влагалища и pH балансу, а силиконовая увеличивает длительность скольжения и позволяет прочувствовать каждый миллиметр удовольствия. Долго, восхитительно и комфортно вместе с CG!.Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл).  Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл). Модель: cg-5002-04. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: карамельный. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10651,17 +10635,17 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>130</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -10707,7 +10691,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10718,17 +10702,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Стимулирующий крем для клитора с</t>
+          <t>Орально-вагинальный лубрикант на водной</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-25848-1299</t>
+          <t>id-24207-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10744,12 +10728,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25848/25848_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_2_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Охлаждающий, возбуждающий и нежный крем, который разнообразит вашу сексуальную игру - вдвоем или наедине с собой. Повышает чувствительность и интенсивность оргазма. Идеально подходит для прелюдии. Прохладный, эффективный и волнующий стимулятор для нее приятно покалывает при применении. Увеличивает приток крови, так что вы сможете наслаждаться более сладкими и глубокими оргазмами. Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл).  Стимулирующий крем для клитора с эффектом охлаждения CG Oh Yes (30 мл). Модель: cg-3002-01. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
+          <t xml:space="preserve">Наслаждайтесь фирменной формулой лубриканта на водной основе от CG, наполненной восхитительным вкусом и ароматом кокоса, который делает смазку идеальной для универсального использования во время прелюдии - орального секса и полового акта. Насыщенный реалистичный кокос расслабляет и возбуждает воображение - словно вы на райском острове. Не содержит сахара и парабенов. Удобная упаковка с дозатором делает процесс еще более комфортным. Орально-вагинальный лубрикант на водной основе CG (130 мл).  Орально-вагинальный лубрикант на водной основе CG (130 мл). Модель: cg-5003-04. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: CG. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10771,17 +10755,17 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>130</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>130 мл</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -10827,32 +10811,40 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Расслабляющий анальный крем CG (20 мл)</t>
+          <t>Белые эластичные перчатки выше локтя</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-23842-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+          <t>id-26905-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
@@ -10864,44 +10856,44 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23842/23842_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26905/26905_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот нежный крем снижает чувствительность заднего прохода, чтобы вы смогли мягко и легко пройти путь к приятной анальной игре. Идеально подходит для усиления ощущений. Нанесите небольшое количество геля непосредственно на кончик пальца и аккуратно нанесите на анус за 10-15 минут до проникновения. Этот продукт не предназначен для маскировки боли! Если вы испытываете какой-либо дискомфорт, остановитесь и прислушайтесь к своему телу. Может использоваться с вибрирующими игрушками. Расслабляющий анальный крем CG (20 мл).  Расслабляющий анальный крем CG (20 мл). Модель: cg-3103-00. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: CG. </t>
+          <t xml:space="preserve">Изысканные перчатки для рокового образа обольстительницы! Красивые эластичные перчатки чуть выше локтя. Если перчатки - это единственная одежда, которая на Вас будет надета в эту ночь, будьте уверены: Ваш мужчина сойдет с ума от желания и восторга!.Белые эластичные перчатки выше локтя.  Белые эластичные перчатки выше локтя. Модель: cr-3427w. Белье. Эротическое белье для женщин &gt; Перчатки, подвязки на ногу, маски для сна. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% эластан</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>20 мл</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>20 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -10947,32 +10939,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Водно-силиконовый лубрикант CG Woo Hoo</t>
+          <t>Красная длинная сорочка с вырезом сзади</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-24209-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>id-16736-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10984,44 +10984,44 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24209/24209_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_4_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Действительно универсальный лубрикант-гибрид. Гладкий и шелковистый благодаря симбиозу силикона и воды, продлевает удовольствие от близости без суеты и частого нанесения продукта. Водная основа дает нежнейшее скольжение и с заботой относится к слизистым влагалища и pH балансу, а силиконовая увеличивает длительность скольжения и позволяет прочувствовать каждый миллиметр удовольствия. Долго, восхитительно и комфортно вместе с CG!.Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл).  Водно-силиконовый лубрикант CG Woo Hoo Hybrid (130 мл). Модель: cg-5002-04. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: карамельный. Батареек нет в комплекте. Бренд: CG. </t>
+          <t xml:space="preserve">Длинная сорочка с сексуальным разрезом сзади, выполненная из мягкого, полупрозрачного материала и ажурного кружева. Регулируемые бретели скрещены на спине.На линии груди небольшой бант. Красная длинная сорочка с вырезом сзади SM.  Красная длинная сорочка с вырезом сзади SM. Модель: cr-3883smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% эластан</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>130 мл</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>130 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -11047,7 +11047,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -11067,32 +11067,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CHILIROSE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Орально-вагинальный лубрикант на водной</t>
+          <t>Комплект из гипюрового платья в пол,</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-24207-1299</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+          <t>id-17296-1299</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>99999</v>
@@ -11104,44 +11112,44 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24207/24207_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_6_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наслаждайтесь фирменной формулой лубриканта на водной основе от CG, наполненной восхитительным вкусом и ароматом кокоса, который делает смазку идеальной для универсального использования во время прелюдии - орального секса и полового акта. Насыщенный реалистичный кокос расслабляет и возбуждает воображение - словно вы на райском острове. Не содержит сахара и парабенов. Удобная упаковка с дозатором делает процесс еще более комфортным. Орально-вагинальный лубрикант на водной основе CG (130 мл).  Орально-вагинальный лубрикант на водной основе CG (130 мл). Модель: cg-5003-04. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: прозрачный. Батареек нет в комплекте. Бренд: CG. </t>
+          <t xml:space="preserve">Длинное полупрозрачное кружевное платье. Очень сексуальное и привлекательное, оно не оставит равнодушным ни одного мужчину. Комплект белья под кожу манит и переливается под нежным цветочным узором. Комплект из гипюрового платья в пол, лифа и трусиков под кожу M.  Комплект из гипюрового платья в пол, лифа и трусиков под кожу M. Модель: cr-4049mb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% эластан</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>130 мл</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>130 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -11167,7 +11175,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>платье, лиф, трусики</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11187,7 +11195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -11203,22 +11211,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Белые эластичные перчатки выше локтя</t>
+          <t>Черный эротический пеньюар ChiliRose L</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-26905-1299</t>
+          <t>id-23445-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -11232,12 +11240,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26905/26905_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_3_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изысканные перчатки для рокового образа обольстительницы! Красивые эластичные перчатки чуть выше локтя. Если перчатки - это единственная одежда, которая на Вас будет надета в эту ночь, будьте уверены: Ваш мужчина сойдет с ума от желания и восторга!.Белые эластичные перчатки выше локтя.  Белые эластичные перчатки выше локтя. Модель: cr-3427w. Белье. Эротическое белье для женщин &gt; Перчатки, подвязки на ногу, маски для сна. Цвет: белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose L.  Черный эротический пеньюар ChiliRose L. Модель: cr-4084lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11295,7 +11303,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11331,17 +11339,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Красная длинная сорочка с вырезом сзади</t>
+          <t>Красный эротический пеньюар ChiliRose L</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-16736-1299</t>
+          <t>id-23448-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -11360,12 +11368,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16736/16736_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_3_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Длинная сорочка с сексуальным разрезом сзади, выполненная из мягкого, полупрозрачного материала и ажурного кружева. Регулируемые бретели скрещены на спине.На линии груди небольшой бант. Красная длинная сорочка с вырезом сзади SM.  Красная длинная сорочка с вырезом сзади SM. Модель: cr-3883smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose L.  Красный эротический пеньюар ChiliRose L. Модель: cr-4084lr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11423,7 +11431,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11443,7 +11451,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11459,22 +11467,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Комплект из гипюрового платья в пол,</t>
+          <t>Черный эротический пеньюар ChiliRose M</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-17296-1299</t>
+          <t>id-23446-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -11488,12 +11496,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17296/17296_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_3_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Длинное полупрозрачное кружевное платье. Очень сексуальное и привлекательное, оно не оставит равнодушным ни одного мужчину. Комплект белья под кожу манит и переливается под нежным цветочным узором. Комплект из гипюрового платья в пол, лифа и трусиков под кожу M.  Комплект из гипюрового платья в пол, лифа и трусиков под кожу M. Модель: cr-4049mb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose M.  Черный эротический пеньюар ChiliRose M. Модель: cr-4084mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11551,7 +11559,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>платье, лиф, трусики</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11587,12 +11595,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Черный эротический пеньюар ChiliRose L</t>
+          <t>Красный эротический пеньюар ChiliRose M</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-23445-1299</t>
+          <t>id-23447-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -11616,12 +11624,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23445/23445_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_3_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose L.  Черный эротический пеньюар ChiliRose L. Модель: cr-4084lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose M.  Красный эротический пеньюар ChiliRose M. Модель: cr-4084mr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11699,7 +11707,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11715,22 +11723,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Красный эротический пеньюар ChiliRose L</t>
+          <t>Красный халатик с ажурными рукавами XL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-23448-1299</t>
+          <t>id-26907-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -11744,12 +11752,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23448/23448_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_3_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose L.  Красный эротический пеньюар ChiliRose L. Модель: cr-4084lr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Ярко-красный элегантный халатик из непрозрачного материала с ажурными вставками. Модель на запах завязывается спереди на пояс, подчеркивающий силуэт. Ниспадающие рукава заканчиваются широким ажурным кружевом. В комплекте изящные трусики-стринги. Изделие упаковано в фирменную коробочку и станет идеальным подарком. Красный халатик с ажурными рукавами XL.  Красный халатик с ажурными рукавами XL. Модель: cr-4084rxl. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11807,7 +11815,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11827,7 +11835,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11843,17 +11851,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Черный эротический пеньюар ChiliRose M</t>
+          <t>Женский эротический пеньюар ChiliRose</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-23446-1299</t>
+          <t>id-20234-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -11872,12 +11880,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23446/23446_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_2_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Черный эротический пеньюар ChiliRose M.  Черный эротический пеньюар ChiliRose M. Модель: cr-4084mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Женский эротический пеньюар ChiliRose XXL.  Женский эротический пеньюар ChiliRose XXL. Модель: cr-4084xxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11955,7 +11963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11971,22 +11979,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Красный эротический пеньюар ChiliRose M</t>
+          <t>Красный коротенький халатик с кружевом</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-23447-1299</t>
+          <t>id-26908-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -12000,12 +12008,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23447/23447_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_4_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Красный эротический пеньюар ChiliRose M.  Красный эротический пеньюар ChiliRose M. Модель: cr-4084mr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Красный коротенький халатик с кружевом XL.  Красный коротенький халатик с кружевом XL. Модель: cr-4110xlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -12025,7 +12033,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -12063,7 +12071,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -12099,22 +12107,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Красный халатик с ажурными рукавами XL</t>
+          <t>Коротенький халатик с кружевом XXL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-26907-1299</t>
+          <t>id-26909-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -12128,12 +12136,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26907/26907_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_4_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ярко-красный элегантный халатик из непрозрачного материала с ажурными вставками. Модель на запах завязывается спереди на пояс, подчеркивающий силуэт. Ниспадающие рукава заканчиваются широким ажурным кружевом. В комплекте изящные трусики-стринги. Изделие упаковано в фирменную коробочку и станет идеальным подарком. Красный халатик с ажурными рукавами XL.  Красный халатик с ажурными рукавами XL. Модель: cr-4084rxl. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Коротенький халатик с кружевом XXL.  Коротенький халатик с кружевом XXL. Модель: cr-4110xxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -12153,7 +12161,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12227,17 +12235,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Женский эротический пеньюар ChiliRose</t>
+          <t>Женский эротический комплект ChiliRose</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-20234-1299</t>
+          <t>id-20231-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -12256,12 +12264,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20234/20234_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_6_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящный коротенький пеньюар с шикарными объемными рукавами отделанными кружевом. Женский эротический пеньюар ChiliRose XXL.  Женский эротический пеньюар ChiliRose XXL. Модель: cr-4084xxl. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Длинное, черное, тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose M.  Женский эротический комплект ChiliRose M. Модель: cr-4136m. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12339,7 +12347,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -12355,22 +12363,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Красный коротенький халатик с кружевом</t>
+          <t>Женский эротический комплект ChiliRose</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26908-1299</t>
+          <t>id-28215-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -12384,12 +12392,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26908/26908_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_7_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Красный коротенький халатик с кружевом XL.  Красный коротенький халатик с кружевом XL. Модель: cr-4110xlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Длинное черное тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose S.  Женский эротический комплект ChiliRose S. Модель: cr-4136sb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12447,7 +12455,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>халатик, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12467,7 +12475,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -12476,29 +12484,25 @@
           <t>CHILIROSE</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>для женщин</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Коротенький халатик с кружевом XXL</t>
+          <t>Кокетливая кружевная сорочка с</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-26909-1299</t>
+          <t>id-19751-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -12512,12 +12516,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26909/26909_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_2_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элегантный коротенький халатик из мягкого и нежного шелка-атласа высокого качества. Фасон на запах, под пояс, с рукавом длиной 3.4. Деликатное кружево с цветочным орнаментом украшает рукава, спинку и декольте. Коротенький халатик с кружевом XXL.  Коротенький халатик с кружевом XXL. Модель: cr-4110xxlr. Белье. Эротическое белье для женщин &gt; Белье большого размера. Эротическое белье для женщин &gt; Халатики. Цвет: вишнево-красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Сексуальный комплектик из кружевной сорочки и стринг сведет с ума любого мужчину. Кокетливая кружевная сорочка с бантиками XL.  Кокетливая кружевная сорочка с бантиками XL. Модель: cr-4163xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12537,7 +12541,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12575,7 +12579,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>халатик, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12595,7 +12599,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -12611,12 +12615,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Женский эротический комплект ChiliRose</t>
+          <t>Черная длинная сорочка с фигурным</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-28214-1299</t>
+          <t>id-19746-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12640,12 +12644,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28214/28214_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_3_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Длинное черное тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose L.  Женский эротический комплект ChiliRose L. Модель: cr-4136lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Восхитительная длинная сорочка с кружевом, открытой спинкой и высоким разрезом сзади сведет с ума Вашего партнера. Его возбуждению не будет предела! Ночь будет очень жаркой!.Черная длинная сорочка с фигурным вырезом на спине M.  Черная длинная сорочка с фигурным вырезом на спине M. Модель: cr-4167mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12665,7 +12669,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -12703,7 +12707,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12723,7 +12727,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -12739,22 +12743,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Женский эротический комплект ChiliRose</t>
+          <t>Открытый сбоку комбинезон с узором роз</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-20231-1299</t>
+          <t>id-23516-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -12768,12 +12772,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20231/20231_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_2_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Длинное, черное, тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose M.  Женский эротический комплект ChiliRose M. Модель: cr-4136m. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Открытый комбинезон из мягкого тюля, украшенного вышивкой, и крупной перфорации по всей длине. Открытый сбоку комбинезон с узором роз SL.  Открытый сбоку комбинезон с узором роз SL. Модель: cr-4261slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12793,7 +12797,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -12831,7 +12835,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12867,12 +12871,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Женский эротический комплект ChiliRose</t>
+          <t>Эротический комплект со штанишками SM</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-28215-1299</t>
+          <t>id-28091-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -12896,12 +12900,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28215/28215_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28091/28091_4_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Длинное черное тонкое и очень эротичное платье. Сексуальное платье сделано из слегка прозрачного тюля. Длинный рукав украшен мягким кружевом. Женский эротический комплект ChiliRose S.  Женский эротический комплект ChiliRose S. Модель: cr-4136sb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Комплект сексуальной одежды для девушки. Кружевной бюст с мягкими чашечками на спине снабжён застёжкой-удлинителем, тонкие бретельки завязываются на шее. Бюст комплектуется чёрными прозрачными брюками на широкой кружевной кокетке, расклешенными книзу. Эротический комплект со штанишками SM.  Эротический комплект со штанишками SM. Модель: cr-4480smb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12921,7 +12925,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12959,7 +12963,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>лиф, штанишки, стринги</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12979,34 +12983,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CHILIROSE</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
+          <t>DEVIL ANGEL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>для женщин</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Кокетливая кружевная сорочка с</t>
+          <t>Эротичный комплект из трех предметов L</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-19751-1299</t>
+          <t>id-26930-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -13020,17 +13028,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19751/19751_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26930/26930_3_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный комплектик из кружевной сорочки и стринг сведет с ума любого мужчину. Кокетливая кружевная сорочка с бантиками XL.  Кокетливая кружевная сорочка с бантиками XL. Модель: cr-4163xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, так как идет в стильной подарочной черной коробке с золотой надписью. Эротичный комплект из трех предметов L.  Эротичный комплект из трех предметов L. Модель: devil-7097lb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: DEVIL ANGEL. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -13045,7 +13053,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13083,7 +13091,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>лиф, юбочка, митенки</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -13103,13 +13111,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CHILIROSE</t>
+          <t>DEVIL ANGEL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -13119,22 +13127,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Черная длинная сорочка с фигурным</t>
+          <t>Эротичный комплект из трех предметов M</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-19746-1299</t>
+          <t>id-26927-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -13148,17 +13156,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19746/19746_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26927/26927_3_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительная длинная сорочка с кружевом, открытой спинкой и высоким разрезом сзади сведет с ума Вашего партнера. Его возбуждению не будет предела! Ночь будет очень жаркой!.Черная длинная сорочка с фигурным вырезом на спине M.  Черная длинная сорочка с фигурным вырезом на спине M. Модель: cr-4167mb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Длинные халатики, сорочки. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, так как идет в стильной подарочной черной коробке с золотой надписью. Эротичный комплект из трех предметов M.  Эротичный комплект из трех предметов M. Модель: devil-7097mb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: DEVIL ANGEL. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -13173,7 +13181,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13211,7 +13219,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>сорочка, стринги</t>
+          <t>лиф, юбочка, митенки</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -13231,13 +13239,13 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CHILIROSE</t>
+          <t>DEVIL ANGEL</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -13247,22 +13255,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Открытый сбоку комбинезон с узором роз</t>
+          <t>Эротичный комплект из трех предметов</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-23516-1299</t>
+          <t>id-26926-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -13276,17 +13284,17 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23516/23516_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26926/26926_3_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Открытый комбинезон из мягкого тюля, украшенного вышивкой, и крупной перфорации по всей длине. Открытый сбоку комбинезон с узором роз SL.  Открытый сбоку комбинезон с узором роз SL. Модель: cr-4261slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CHILIROSE. </t>
+          <t xml:space="preserve">Сексуальный комплект из прозрачной черной сеточки в сочетании с эластичным непрозрачным материалом и золотой фурнитурой сделают Ваш образ более загадочным и интригующим. В таком белье у Вас есть все шансы свести мужчину с ума!Эротичный комплект российской фирмы DEVIL &amp; ANGEL обладает великолепным качеством и может быть отличным подарком, так как идет в стильной подарочной черной коробке с золотой надписью. Эротичный комплект из трех предметов XSS.  Эротичный комплект из трех предметов XSS. Модель: devil-7097xssb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: DEVIL ANGEL. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -13301,7 +13309,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -13339,7 +13347,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>лиф, юбочка, митенки</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
